--- a/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{C6113708-CAB3-490A-8C36-7B7629FA23D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{EC4DDA48-A638-4BB6-B292-7163694D1D27}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId19"/>
+    <pivotCache cacheId="15" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1922,7 +1922,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="0" baseline="0"/>
-              <a:t>CPM Progress</a:t>
+              <a:t>Reuse Progress</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="0"/>
           </a:p>
@@ -2128,7 +2128,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>CPM Progress</a:t>
+              <a:t>Reuse Progress</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2570,7 +2570,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>CPM Backlog by State</a:t>
+              <a:t>Reuse Backlog by State</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3576,7 +3576,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>CPM Burndown</a:t>
+              <a:t>Reuse Burndown</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3998,7 +3998,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>CPM Cumulative Flow Diagram</a:t>
+              <a:t>Reuse Cumulative Flow Diagram</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5033,7 +5033,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="0" baseline="0"/>
-              <a:t>Excel Import Progress</a:t>
+              <a:t>Drag &amp; Drop Progress</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="0"/>
           </a:p>
@@ -5241,7 +5241,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Excel Import</a:t>
+              <a:t>Drag &amp; Drop</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -5687,7 +5687,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Excel Import Backlog by State</a:t>
+              <a:t>Drag &amp; Drop Backlog by State</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6702,7 +6702,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Excel Import Burndown</a:t>
+              <a:t>Drag &amp; Drop Burndown</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -7334,11 +7334,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Excel</a:t>
+              <a:t>Drag</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Import</a:t>
+              <a:t> &amp; Drop</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -8336,7 +8336,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="0" baseline="0"/>
-              <a:t>UME v2 Progress</a:t>
+              <a:t>UME v3 Progress</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="0"/>
           </a:p>
@@ -8542,7 +8542,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>UME v2 Progress</a:t>
+              <a:t>UME v3 Progress</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -8980,7 +8980,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>UME v2 Burndown</a:t>
+              <a:t>UME v3 Burndown</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -9406,7 +9406,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> v2</a:t>
+              <a:t> v3</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -10243,7 +10243,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> v2 Backlog by State</a:t>
+              <a:t> v3 Backlog by State</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -42609,7 +42609,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43486.693218865737" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43487.623498148147" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -42905,8 +42905,8 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Saturn Component" numFmtId="0">
-      <sharedItems containsBlank="1" count="9">
-        <s v="${bpHelper.getRocketComponent(issue)}"/>
+      <sharedItems containsBlank="1" count="10">
+        <s v="${bpHelper.getSaturnComponent(issue)}"/>
         <m/>
         <s v="UME v3"/>
         <s v="Reuse"/>
@@ -42915,6 +42915,7 @@
         <s v="R&amp;D Bucket"/>
         <s v="Other"/>
         <s v="CI/CD"/>
+        <s v="${bpHelper.getRocketComponent(issue)}" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Customer" numFmtId="0">
@@ -48098,8 +48099,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="31" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48195,7 +48196,7 @@
   <pageFields count="3">
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -48213,8 +48214,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="31" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48335,7 +48336,7 @@
   <pageFields count="4">
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
+    <pageField fld="10" item="8" hier="-1"/>
     <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="5">
@@ -48345,7 +48346,7 @@
     <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
     <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="21">
+  <chartFormats count="27">
     <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -48487,7 +48488,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
+    <chartFormat chart="7" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -48496,7 +48497,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="20">
+    <chartFormat chart="7" format="8">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -48505,7 +48506,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="21">
+    <chartFormat chart="7" format="9">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -48514,7 +48515,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="22">
+    <chartFormat chart="7" format="10">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -48523,7 +48524,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="23">
+    <chartFormat chart="7" format="11">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -48532,7 +48533,61 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="24">
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -48555,8 +48610,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="31" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48580,28 +48635,41 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
@@ -48614,14 +48682,14 @@
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
@@ -48635,187 +48703,49 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="-2"/>
+    <field x="10"/>
   </rowFields>
   <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
   <pageFields count="3">
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
     <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
   </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -48829,7 +48759,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48987,7 +48917,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49093,7 +49023,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -49217,7 +49147,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49457,7 +49387,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49699,7 +49629,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D5:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49999,7 +49929,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -50272,7 +50202,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -50694,7 +50624,1362 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="31" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51143,1027 +52428,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="31" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="8" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="31" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="31" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52261,270 +52527,6 @@
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
     <pageField fld="10" item="8" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="31" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -58359,13 +58361,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -58729,7 +58731,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43486</v>
+        <v>43487</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>264</v>

--- a/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{EC4DDA48-A638-4BB6-B292-7163694D1D27}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{0519CC6F-B553-440B-9323-A64B41DE8CD7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2319,7 +2319,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.25</c:v>
@@ -3678,10 +3678,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124.13793103448276</c:v>
+                  <c:v>95.172413793103445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3752,7 +3752,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>160</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>150</c:v>
@@ -4094,7 +4094,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>200</c:v>
@@ -4164,7 +4164,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4236,7 +4236,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>180</c:v>
@@ -4306,7 +4306,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
@@ -4572,10 +4572,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5436,7 +5436,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.25</c:v>
@@ -6804,10 +6804,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.931034482758619</c:v>
+                  <c:v>49.655172413793103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6878,7 +6878,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>150</c:v>
@@ -7438,7 +7438,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>200</c:v>
@@ -7508,7 +7508,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7580,7 +7580,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>180</c:v>
@@ -7650,7 +7650,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
@@ -7875,10 +7875,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8733,7 +8733,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.25</c:v>
@@ -9082,10 +9082,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.103448275862071</c:v>
+                  <c:v>24.827586206896552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9156,7 +9156,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>150</c:v>
@@ -9506,7 +9506,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>200</c:v>
@@ -9576,7 +9576,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -9648,7 +9648,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>180</c:v>
@@ -9718,7 +9718,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
@@ -9984,10 +9984,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14880,7 +14880,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.77501406162114872</c:v>
@@ -19920,7 +19920,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>310</c:v>
+                  <c:v>283.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>450</c:v>
@@ -20262,7 +20262,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2000.125</c:v>
@@ -20332,7 +20332,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -20404,7 +20404,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>540</c:v>
@@ -20474,7 +20474,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1550.125</c:v>
@@ -42609,7 +42609,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43487.623498148147" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43494.916429629629" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -48099,8 +48099,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48196,7 +48196,7 @@
   <pageFields count="3">
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -48610,2020 +48610,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="42">
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="17"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="39">
-        <item x="0"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="34"/>
-        <item m="1" x="27"/>
-        <item m="1" x="22"/>
-        <item m="1" x="16"/>
-        <item m="1" x="10"/>
-        <item m="1" x="35"/>
-        <item m="1" x="21"/>
-        <item m="1" x="37"/>
-        <item m="1" x="32"/>
-        <item m="1" x="25"/>
-        <item m="1" x="20"/>
-        <item m="1" x="13"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="26"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="31"/>
-        <item m="1" x="33"/>
-        <item m="1" x="36"/>
-        <item x="1"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item m="1" x="30"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="31" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="42">
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="17"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
@@ -50967,6 +48953,2145 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="42">
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="17"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="39">
+        <item x="0"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="34"/>
+        <item m="1" x="27"/>
+        <item m="1" x="22"/>
+        <item m="1" x="16"/>
+        <item m="1" x="10"/>
+        <item m="1" x="35"/>
+        <item m="1" x="21"/>
+        <item m="1" x="37"/>
+        <item m="1" x="32"/>
+        <item m="1" x="25"/>
+        <item m="1" x="20"/>
+        <item m="1" x="13"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="26"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="31"/>
+        <item m="1" x="33"/>
+        <item m="1" x="36"/>
+        <item x="1"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item m="1" x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="31" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="42">
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="17"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
@@ -51310,20 +51435,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
-        <item x="0"/>
-        <item x="6"/>
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
         <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -51335,28 +51460,41 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
@@ -51369,104 +51507,70 @@
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
         <item x="2"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="7"/>
         <item x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="35"/>
+    <field x="10"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="5">
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="7"/>
     </i>
     <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
   <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
     <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -51480,505 +51584,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -52428,7 +52033,117 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
@@ -52527,6 +52242,291 @@
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
     <pageField fld="10" item="8" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -54534,7 +54534,7 @@
   </sheetPr>
   <dimension ref="A6:B9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -58361,11 +58361,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
@@ -58533,44 +58533,44 @@
         <v>0</v>
       </c>
       <c r="M3" s="78">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="N3" s="33">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O3" s="33">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P3" s="33">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Q3" s="40">
         <f>Q25*(100%-K3)</f>
         <v>300</v>
       </c>
       <c r="R3" s="40">
-        <v>310</v>
+        <v>283.5</v>
       </c>
       <c r="S3" s="40">
         <f>Q26*(100%-K3)</f>
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="T3" s="40">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="U3" s="40">
         <f>Q27*(100%-L3)</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="V3" s="40">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="W3" s="40">
         <f>Q28*(100%-K3)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="X3" s="40">
-        <v>50</v>
+        <v>41.5</v>
       </c>
       <c r="Z3" s="32">
         <v>43514</v>
@@ -58635,7 +58635,7 @@
       </c>
       <c r="S4" s="42">
         <f>Q26*(100%-K4)</f>
-        <v>124.13793103448276</v>
+        <v>95.172413793103445</v>
       </c>
       <c r="T4" s="42">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
@@ -58643,7 +58643,7 @@
       </c>
       <c r="U4" s="40">
         <f>Q27*(100%-L4)</f>
-        <v>57.931034482758619</v>
+        <v>49.655172413793103</v>
       </c>
       <c r="V4" s="42">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
@@ -58651,7 +58651,7 @@
       </c>
       <c r="W4" s="40">
         <f>Q28*(100%-K4)</f>
-        <v>33.103448275862071</v>
+        <v>24.827586206896552</v>
       </c>
       <c r="X4" s="42">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
@@ -58731,7 +58731,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43487</v>
+        <v>43494</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>264</v>
@@ -59328,7 +59328,7 @@
         <v>260</v>
       </c>
       <c r="Q26">
-        <v>150</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.45">
@@ -59360,7 +59360,7 @@
         <v>261</v>
       </c>
       <c r="Q27">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.45">
@@ -59372,7 +59372,7 @@
         <v>259</v>
       </c>
       <c r="Q28" s="16">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.45">
@@ -60107,116 +60107,116 @@
       <c r="B3" s="56"/>
       <c r="C3" s="56"/>
       <c r="D3" s="57">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E3" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>300</v>
       </c>
       <c r="F3" s="40">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="G3" s="40">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="H3" s="40">
         <f t="shared" ref="H3:H4" si="0">D3-I3</f>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="I3" s="40">
-        <v>300</v>
+        <v>283.5</v>
       </c>
       <c r="J3" s="33">
         <f t="shared" ref="J3" si="1" xml:space="preserve"> G3/D3</f>
-        <v>0</v>
+        <v>0.6508474576271186</v>
       </c>
       <c r="K3" s="33">
         <f t="shared" ref="K3" si="2" xml:space="preserve"> H3/D3</f>
-        <v>0</v>
+        <v>3.898305084745763E-2</v>
       </c>
       <c r="L3" s="59">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="M3" s="58">
         <f>_ReleaseData!$Q$26</f>
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="N3" s="40">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="O3" s="40">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="P3" s="40">
         <f t="shared" ref="P3" si="3">L3-Q3</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="40">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="R3" s="33">
         <f t="shared" ref="R3" si="4" xml:space="preserve"> O3/L3</f>
-        <v>0</v>
+        <v>0.41860465116279072</v>
       </c>
       <c r="S3" s="33">
         <f t="shared" ref="S3" si="5" xml:space="preserve"> P3/L3</f>
-        <v>0</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="T3" s="57">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="U3" s="58">
         <f>_ReleaseData!$Q$27</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="V3" s="40">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="W3" s="40">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="X3" s="40">
         <f t="shared" ref="X3:X4" si="6">T3-Y3</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y3" s="40">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="Z3" s="33">
         <f t="shared" ref="Z3" si="7" xml:space="preserve"> W3/T3</f>
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA3" s="33">
         <f t="shared" ref="AA3" si="8">X3/T3</f>
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="AB3" s="57">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC3" s="58">
         <f>_ReleaseData!$Q$28</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AD3" s="40">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AE3" s="40">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF3" s="40">
         <f t="shared" ref="AF3" si="9">AB3-AG3</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG3" s="40">
-        <v>40</v>
+        <v>41.5</v>
       </c>
       <c r="AH3" s="33">
         <f t="shared" ref="AH3" si="10" xml:space="preserve"> AE3/AB3</f>
-        <v>0</v>
+        <v>0.51162790697674421</v>
       </c>
       <c r="AI3" s="33">
         <f t="shared" ref="AI3" si="11">AF3/AB3</f>
-        <v>0</v>
+        <v>3.4883720930232558E-2</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.45">
@@ -60267,7 +60267,7 @@
       </c>
       <c r="M4" s="58">
         <f>_ReleaseData!$Q$26</f>
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="N4" s="40">
         <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
@@ -60299,7 +60299,7 @@
       </c>
       <c r="U4" s="58">
         <f>_ReleaseData!$Q$27</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="V4" s="40">
         <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
@@ -60331,7 +60331,7 @@
       </c>
       <c r="AC4" s="58">
         <f>_ReleaseData!$Q$28</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AD4" s="40">
         <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>

--- a/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{0519CC6F-B553-440B-9323-A64B41DE8CD7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{F1BD6C48-6E50-45CF-8722-0904B66D0D22}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1815,10 +1815,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>0.1864406779661017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.81355932203389836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4063,7 +4063,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -4089,10 +4089,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$L$3:$L$10</c:f>
+              <c:f>'_CumulativeFlowData '!$L$3:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>129</c:v>
                 </c:pt>
@@ -4133,7 +4133,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -4159,10 +4159,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$N$3:$N$10</c:f>
+              <c:f>'_CumulativeFlowData '!$N$3:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>125</c:v>
                 </c:pt>
@@ -4205,7 +4205,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -4231,10 +4231,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$O$3:$O$10</c:f>
+              <c:f>'_CumulativeFlowData '!$O$3:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -4275,7 +4275,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -4301,10 +4301,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$P$3:$P$10</c:f>
+              <c:f>'_CumulativeFlowData '!$P$3:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4423,7 +4423,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:delete val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4541,7 +4546,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -4567,14 +4572,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$M$3:$M$10</c:f>
+              <c:f>'_CumulativeFlowData '!$M$3:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
@@ -4926,10 +4946,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>0.1864406779661017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.81355932203389836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7407,7 +7427,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -7433,10 +7453,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$T$3:$T$10</c:f>
+              <c:f>'_CumulativeFlowData '!$T$3:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -7477,7 +7497,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -7503,10 +7523,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$V$3:$V$10</c:f>
+              <c:f>'_CumulativeFlowData '!$V$3:$V$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -7549,7 +7569,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -7575,10 +7595,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$W$3:$W$10</c:f>
+              <c:f>'_CumulativeFlowData '!$W$3:$W$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>57</c:v>
                 </c:pt>
@@ -7619,7 +7639,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -7645,10 +7665,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$X$3:$X$10</c:f>
+              <c:f>'_CumulativeFlowData '!$X$3:$X$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -7844,7 +7864,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -7870,14 +7890,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$U$3:$U$10</c:f>
+              <c:f>'_CumulativeFlowData '!$U$3:$U$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -8229,10 +8264,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>0.1864406779661017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.81355932203389836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9475,7 +9510,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -9501,10 +9536,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$AB$3:$AB$10</c:f>
+              <c:f>'_CumulativeFlowData '!$AB$3:$AB$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43</c:v>
                 </c:pt>
@@ -9545,7 +9580,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -9571,10 +9606,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$AD$3:$AD$10</c:f>
+              <c:f>'_CumulativeFlowData '!$AD$3:$AD$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43</c:v>
                 </c:pt>
@@ -9617,7 +9652,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -9643,10 +9678,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$AE$3:$AE$10</c:f>
+              <c:f>'_CumulativeFlowData '!$AE$3:$AE$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>22</c:v>
                 </c:pt>
@@ -9687,7 +9722,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -9713,10 +9748,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$AF$3:$AF$10</c:f>
+              <c:f>'_CumulativeFlowData '!$AF$3:$AF$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.5</c:v>
                 </c:pt>
@@ -9835,7 +9870,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:delete val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9953,7 +9993,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -9979,14 +10019,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$AC$3:$AC$10</c:f>
+              <c:f>'_CumulativeFlowData '!$AC$3:$AC$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -20231,7 +20286,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -20257,10 +20312,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$D$3:$D$10</c:f>
+              <c:f>'_CumulativeFlowData '!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>295</c:v>
                 </c:pt>
@@ -20301,7 +20356,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -20327,10 +20382,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$F$3:$F$10</c:f>
+              <c:f>'_CumulativeFlowData '!$F$3:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>291</c:v>
                 </c:pt>
@@ -20373,7 +20428,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -20399,10 +20454,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$G$3:$G$10</c:f>
+              <c:f>'_CumulativeFlowData '!$G$3:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>192</c:v>
                 </c:pt>
@@ -20443,7 +20498,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -20469,10 +20524,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$H$3:$H$10</c:f>
+              <c:f>'_CumulativeFlowData '!$H$3:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>11.5</c:v>
                 </c:pt>
@@ -20730,7 +20785,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'_CumulativeFlowData '!$A$3:$A$10</c:f>
+              <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
@@ -20756,14 +20811,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'_CumulativeFlowData '!$E$3:$E$10</c:f>
+              <c:f>'_CumulativeFlowData '!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
@@ -21959,10 +22029,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>0.1864406779661017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.81355932203389836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -40769,7 +40839,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>19%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41409,7 +41479,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>19%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42085,7 +42155,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>19%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42592,7 +42662,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>19%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42609,7 +42679,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43494.916429629629" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43509.348319328703" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -48099,8 +48169,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48196,7 +48266,7 @@
   <pageFields count="3">
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -48214,6 +48284,2532 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="42">
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="17"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="39">
+        <item x="0"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="34"/>
+        <item m="1" x="27"/>
+        <item m="1" x="22"/>
+        <item m="1" x="16"/>
+        <item m="1" x="10"/>
+        <item m="1" x="35"/>
+        <item m="1" x="21"/>
+        <item m="1" x="37"/>
+        <item m="1" x="32"/>
+        <item m="1" x="25"/>
+        <item m="1" x="20"/>
+        <item m="1" x="13"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="26"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="31"/>
+        <item m="1" x="33"/>
+        <item m="1" x="36"/>
+        <item x="1"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item m="1" x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="31" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="42">
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="17"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -48609,2981 +51205,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="42">
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="17"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="39">
-        <item x="0"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="34"/>
-        <item m="1" x="27"/>
-        <item m="1" x="22"/>
-        <item m="1" x="16"/>
-        <item m="1" x="10"/>
-        <item m="1" x="35"/>
-        <item m="1" x="21"/>
-        <item m="1" x="37"/>
-        <item m="1" x="32"/>
-        <item m="1" x="25"/>
-        <item m="1" x="20"/>
-        <item m="1" x="13"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="26"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="31"/>
-        <item m="1" x="33"/>
-        <item m="1" x="36"/>
-        <item x="1"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item m="1" x="30"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="31" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="42">
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="17"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -52033,6 +51655,350 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
@@ -52144,8 +52110,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52241,7 +52207,7 @@
   <pageFields count="3">
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="8" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -52259,20 +52225,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
-        <item x="0"/>
-        <item x="6"/>
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
         <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -52289,7 +52255,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52319,85 +52285,90 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
         <item x="2"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="7"/>
         <item x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="35"/>
+    <field x="-2"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="5">
     <i>
+      <x/>
+    </i>
+    <i i="1">
       <x v="1"/>
     </i>
-    <i>
+    <i i="2">
       <x v="2"/>
     </i>
-    <i>
+    <i i="3">
       <x v="3"/>
     </i>
-    <i>
+    <i i="4">
       <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
     <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -52406,11 +52377,110 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="26">
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -52429,8 +52499,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52526,7 +52596,7 @@
   <pageFields count="3">
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
+    <pageField fld="10" item="8" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -58364,13 +58434,13 @@
     <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.1328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.53125" customWidth="1"/>
     <col min="13" max="17" width="14.1328125" customWidth="1"/>
@@ -58439,7 +58509,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -58517,7 +58587,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>1</v>
+        <v>0.81355932203389836</v>
       </c>
       <c r="D3" s="26">
         <v>43495</v>
@@ -58731,7 +58801,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43494</v>
+        <v>43509</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>264</v>
@@ -59228,7 +59298,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0</v>
+        <v>0.1864406779661017</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59237,7 +59307,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>1</v>
+        <v>0.81355932203389836</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -60369,7 +60439,10 @@
         <v>43522</v>
       </c>
       <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
+      <c r="E5" s="58">
+        <f>_ReleaseData!$Q$25</f>
+        <v>300</v>
+      </c>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
@@ -60377,7 +60450,10 @@
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="59"/>
-      <c r="M5" s="58"/>
+      <c r="M5" s="58">
+        <f>_ReleaseData!$Q$26</f>
+        <v>115</v>
+      </c>
       <c r="N5" s="40"/>
       <c r="O5" s="40"/>
       <c r="P5" s="40"/>
@@ -60385,7 +60461,10 @@
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
       <c r="T5" s="57"/>
-      <c r="U5" s="58"/>
+      <c r="U5" s="58">
+        <f>_ReleaseData!$Q$27</f>
+        <v>60</v>
+      </c>
       <c r="V5" s="40"/>
       <c r="W5" s="40"/>
       <c r="X5" s="40"/>
@@ -60393,7 +60472,10 @@
       <c r="Z5" s="33"/>
       <c r="AA5" s="33"/>
       <c r="AB5" s="57"/>
-      <c r="AC5" s="58"/>
+      <c r="AC5" s="58">
+        <f>_ReleaseData!$Q$28</f>
+        <v>30</v>
+      </c>
       <c r="AD5" s="40"/>
       <c r="AE5" s="40"/>
       <c r="AF5" s="40"/>
@@ -60412,7 +60494,10 @@
         <v>43536</v>
       </c>
       <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
+      <c r="E6" s="58">
+        <f>_ReleaseData!$Q$25</f>
+        <v>300</v>
+      </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
@@ -60420,7 +60505,10 @@
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
       <c r="L6" s="59"/>
-      <c r="M6" s="58"/>
+      <c r="M6" s="58">
+        <f>_ReleaseData!$Q$26</f>
+        <v>115</v>
+      </c>
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
       <c r="P6" s="40"/>
@@ -60428,7 +60516,10 @@
       <c r="R6" s="33"/>
       <c r="S6" s="33"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="58"/>
+      <c r="U6" s="58">
+        <f>_ReleaseData!$Q$27</f>
+        <v>60</v>
+      </c>
       <c r="V6" s="40"/>
       <c r="W6" s="40"/>
       <c r="X6" s="40"/>
@@ -60436,7 +60527,10 @@
       <c r="Z6" s="33"/>
       <c r="AA6" s="33"/>
       <c r="AB6" s="57"/>
-      <c r="AC6" s="58"/>
+      <c r="AC6" s="58">
+        <f>_ReleaseData!$Q$28</f>
+        <v>30</v>
+      </c>
       <c r="AD6" s="40"/>
       <c r="AE6" s="40"/>
       <c r="AF6" s="40"/>
@@ -60455,7 +60549,10 @@
         <v>43550</v>
       </c>
       <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
+      <c r="E7" s="58">
+        <f>_ReleaseData!$Q$25</f>
+        <v>300</v>
+      </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
@@ -60463,7 +60560,10 @@
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
       <c r="L7" s="59"/>
-      <c r="M7" s="58"/>
+      <c r="M7" s="58">
+        <f>_ReleaseData!$Q$26</f>
+        <v>115</v>
+      </c>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
@@ -60471,7 +60571,10 @@
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="58">
+        <f>_ReleaseData!$Q$27</f>
+        <v>60</v>
+      </c>
       <c r="V7" s="40"/>
       <c r="W7" s="40"/>
       <c r="X7" s="40"/>
@@ -60479,7 +60582,10 @@
       <c r="Z7" s="33"/>
       <c r="AA7" s="33"/>
       <c r="AB7" s="57"/>
-      <c r="AC7" s="58"/>
+      <c r="AC7" s="58">
+        <f>_ReleaseData!$Q$28</f>
+        <v>30</v>
+      </c>
       <c r="AD7" s="40"/>
       <c r="AE7" s="40"/>
       <c r="AF7" s="40"/>
@@ -60504,7 +60610,10 @@
         <v>43564</v>
       </c>
       <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
+      <c r="E8" s="58">
+        <f>_ReleaseData!$Q$25</f>
+        <v>300</v>
+      </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
@@ -60512,7 +60621,10 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="59"/>
-      <c r="M8" s="58"/>
+      <c r="M8" s="58">
+        <f>_ReleaseData!$Q$26</f>
+        <v>115</v>
+      </c>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
       <c r="P8" s="40"/>
@@ -60520,7 +60632,10 @@
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="58">
+        <f>_ReleaseData!$Q$27</f>
+        <v>60</v>
+      </c>
       <c r="V8" s="40"/>
       <c r="W8" s="40"/>
       <c r="X8" s="40"/>
@@ -60528,7 +60643,10 @@
       <c r="Z8" s="33"/>
       <c r="AA8" s="33"/>
       <c r="AB8" s="57"/>
-      <c r="AC8" s="58"/>
+      <c r="AC8" s="58">
+        <f>_ReleaseData!$Q$28</f>
+        <v>30</v>
+      </c>
       <c r="AD8" s="40"/>
       <c r="AE8" s="40"/>
       <c r="AF8" s="40"/>
@@ -60553,7 +60671,10 @@
         <v>43578</v>
       </c>
       <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
+      <c r="E9" s="58">
+        <f>_ReleaseData!$Q$25</f>
+        <v>300</v>
+      </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
       <c r="H9" s="40"/>
@@ -60561,7 +60682,10 @@
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="59"/>
-      <c r="M9" s="58"/>
+      <c r="M9" s="58">
+        <f>_ReleaseData!$Q$26</f>
+        <v>115</v>
+      </c>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
@@ -60569,7 +60693,10 @@
       <c r="R9" s="33"/>
       <c r="S9" s="33"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="58">
+        <f>_ReleaseData!$Q$27</f>
+        <v>60</v>
+      </c>
       <c r="V9" s="40"/>
       <c r="W9" s="40"/>
       <c r="X9" s="40"/>
@@ -60577,7 +60704,10 @@
       <c r="Z9" s="33"/>
       <c r="AA9" s="33"/>
       <c r="AB9" s="57"/>
-      <c r="AC9" s="58"/>
+      <c r="AC9" s="58">
+        <f>_ReleaseData!$Q$28</f>
+        <v>30</v>
+      </c>
       <c r="AD9" s="40"/>
       <c r="AE9" s="40"/>
       <c r="AF9" s="40"/>

--- a/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{F1BD6C48-6E50-45CF-8722-0904B66D0D22}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{AE9B300D-C5E4-418E-9279-4B73585F0CE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="281">
   <si>
     <t>Status</t>
   </si>
@@ -2322,6 +2322,9 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3683,6 +3686,21 @@
                 <c:pt idx="1">
                   <c:v>95.172413793103445</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.327586206896555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.672413793103445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.844827586206893</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3755,6 +3773,9 @@
                   <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4097,6 +4118,9 @@
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4167,6 +4191,9 @@
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4239,6 +4266,9 @@
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4309,6 +4339,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5459,6 +5492,9 @@
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -6829,6 +6865,21 @@
                 <c:pt idx="1">
                   <c:v>49.655172413793103</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.344827586206897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.655172413793103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3103448275862064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6901,6 +6952,9 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7461,6 +7515,9 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7531,6 +7588,9 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7603,6 +7663,9 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7673,6 +7736,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8771,6 +8837,9 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9122,6 +9191,21 @@
                 <c:pt idx="1">
                   <c:v>24.827586206896552</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8275862068965516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6551724137931032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9194,6 +9278,9 @@
                   <c:v>41.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9544,6 +9631,9 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9614,6 +9704,9 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9686,6 +9779,9 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -9756,6 +9852,9 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11177,6 +11276,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1460.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11303,6 +11405,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>146.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -14938,6 +15043,9 @@
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -15172,7 +15280,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint Saturn1 Progress</c:v>
+              <c:v>Sprint Saturn2 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -15527,7 +15635,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -15545,7 +15653,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -15621,7 +15731,7 @@
             <c:strRef>
               <c:f>_ActiveSprintData!$E$16</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Closed</c:v>
                 </c:pt>
@@ -15641,9 +15751,6 @@
                   <c:v>Cancelled</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Unkown</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
@@ -15654,7 +15761,7 @@
               <c:f>_ActiveSprintData!$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -15665,7 +15772,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -15673,8 +15780,8 @@
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19906,6 +20013,21 @@
                 <c:pt idx="1">
                   <c:v>248.27586206896552</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>201.72413793103448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.275862068965509</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.551724137931025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19978,6 +20100,9 @@
                   <c:v>283.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20320,6 +20445,9 @@
                   <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20390,6 +20518,9 @@
                   <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20462,6 +20593,9 @@
                   <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>267.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -20532,6 +20666,9 @@
                   <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -41217,7 +41354,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>26</a:t>
+            <a:t>21</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -42679,7 +42816,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43509.348319328703" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43509.376706249997" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -44472,7 +44609,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44521,7 +44658,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44570,7 +44707,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44619,7 +44756,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44668,7 +44805,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44717,7 +44854,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44766,7 +44903,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48169,8 +48306,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48266,7 +48403,7 @@
   <pageFields count="3">
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -48626,20 +48763,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
-        <item x="0"/>
-        <item x="6"/>
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
         <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -48651,28 +48788,41 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
@@ -48685,104 +48835,70 @@
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
         <item x="2"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="7"/>
         <item x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="35"/>
+    <field x="10"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="5">
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="7"/>
     </i>
     <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
   <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
     <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -49667,7 +49783,7 @@
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -49797,7 +49913,7 @@
   <rowFields count="1">
     <field x="34"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
       <x v="1"/>
     </i>
@@ -49817,9 +49933,6 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="7"/>
-    </i>
-    <i>
       <x v="8"/>
     </i>
     <i t="grand">
@@ -49831,7 +49944,7 @@
   </colItems>
   <pageFields count="3">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="31" hier="-1"/>
+    <pageField fld="30" item="32" hier="-1"/>
     <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
@@ -50661,111 +50774,105 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
       <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
         <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
       <items count="10">
         <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
         <item x="1"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="10"/>
+    <field x="44"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="9">
     <i>
       <x v="1"/>
     </i>
     <i>
+      <x v="2"/>
+    </i>
+    <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i>
       <x v="7"/>
@@ -50777,26 +50884,227 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
   </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -51206,6 +51514,675 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="8" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -51655,463 +52632,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52207,396 +52730,7 @@
   <pageFields count="3">
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="8" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -54842,9 +54976,12 @@
       <c r="K7" t="s">
         <v>262</v>
       </c>
+      <c r="L7">
+        <v>73.5</v>
+      </c>
       <c r="M7">
         <f t="shared" ref="M7:M12" si="0">SUM(L7:L7)</f>
-        <v>0</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
@@ -54928,11 +55065,11 @@
       </c>
       <c r="L13">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="M13">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>0</v>
+        <v>73.5</v>
       </c>
     </row>
   </sheetData>
@@ -54980,7 +55117,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Saturn1</v>
+        <v>Saturn2</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -54994,7 +55131,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55042,7 +55179,7 @@
         <v>176</v>
       </c>
       <c r="E9" s="20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -55063,24 +55200,18 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="20"/>
+        <v>186</v>
+      </c>
+      <c r="E12" s="20">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13" s="17" t="s">
-        <v>186</v>
+        <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="20">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55089,7 +55220,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55098,7 +55229,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint Saturn1 Progress</v>
+        <v>Sprint Saturn2 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -56498,7 +56629,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn1</v>
+        <v>Saturn2</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -56522,7 +56653,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn1</v>
+        <v>Saturn2</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>176</v>
@@ -56546,7 +56677,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn1</v>
+        <v>Saturn2</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -56570,7 +56701,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn1</v>
+        <v>Saturn2</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -56594,7 +56725,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn1</v>
+        <v>Saturn2</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -56618,7 +56749,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn1</v>
+        <v>Saturn2</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -56639,7 +56770,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn1</v>
+        <v>Saturn2</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -58431,8 +58562,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
@@ -58440,7 +58571,7 @@
     <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.1328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.53125" customWidth="1"/>
     <col min="13" max="17" width="14.1328125" customWidth="1"/>
@@ -58615,28 +58746,28 @@
         <v>0.03</v>
       </c>
       <c r="Q3" s="40">
-        <f>Q25*(100%-K3)</f>
+        <f>$Q$25*(100%-K3)</f>
         <v>300</v>
       </c>
       <c r="R3" s="40">
         <v>283.5</v>
       </c>
       <c r="S3" s="40">
-        <f>Q26*(100%-K3)</f>
+        <f>$Q$26*(100%-K3)</f>
         <v>115</v>
       </c>
       <c r="T3" s="40">
         <v>126</v>
       </c>
       <c r="U3" s="40">
-        <f>Q27*(100%-L3)</f>
+        <f>$Q$27*(100%-L3)</f>
         <v>60</v>
       </c>
       <c r="V3" s="40">
         <v>53</v>
       </c>
       <c r="W3" s="40">
-        <f>Q28*(100%-K3)</f>
+        <f>$Q$28*(100%-K3)</f>
         <v>30</v>
       </c>
       <c r="X3" s="40">
@@ -58680,52 +58811,44 @@
         <v>0.17241379310344829</v>
       </c>
       <c r="M4" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.19</v>
       </c>
       <c r="N4" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="O4" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="P4" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="Q4" s="40">
-        <f>Q25*(100%-K4)</f>
+        <f>$Q$25*(100%-K4)</f>
         <v>248.27586206896552</v>
       </c>
       <c r="R4" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>263</v>
       </c>
       <c r="S4" s="42">
-        <f>Q26*(100%-K4)</f>
+        <f>$Q$26*(100%-K4)</f>
         <v>95.172413793103445</v>
       </c>
       <c r="T4" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="U4" s="40">
-        <f>Q27*(100%-L4)</f>
+        <f>$Q$27*(100%-L4)</f>
         <v>49.655172413793103</v>
       </c>
       <c r="V4" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="W4" s="40">
-        <f>Q28*(100%-K4)</f>
+        <f>$Q$28*(100%-K4)</f>
         <v>24.827586206896552</v>
       </c>
       <c r="X4" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="Z4" s="32">
         <v>43574</v>
@@ -58764,18 +58887,54 @@
         <f>SUM($J$4:J5)/SUM($J$4:$J$9)</f>
         <v>0.32758620689655171</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
+      <c r="M5" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N5" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O5" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P5" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q5" s="40">
+        <f t="shared" ref="Q5:Q9" si="1">$Q$25*(100%-K5)</f>
+        <v>201.72413793103448</v>
+      </c>
+      <c r="R5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
+      <c r="S5" s="42">
+        <f t="shared" ref="S5:S9" si="2">$Q$26*(100%-K5)</f>
+        <v>77.327586206896555</v>
+      </c>
+      <c r="T5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>150</v>
+      </c>
+      <c r="U5" s="40">
+        <f t="shared" ref="U5:U9" si="3">$Q$27*(100%-L5)</f>
+        <v>40.344827586206897</v>
+      </c>
+      <c r="V5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
+        <v>150</v>
+      </c>
+      <c r="W5" s="40">
+        <f t="shared" ref="W5:W9" si="4">$Q$28*(100%-K5)</f>
+        <v>20.172413793103448</v>
+      </c>
+      <c r="X5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
+        <v>150</v>
+      </c>
       <c r="Z5" s="32"/>
       <c r="AB5" s="16" t="s">
         <v>140</v>
@@ -58830,13 +58989,25 @@
       <c r="N6" s="33"/>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
-      <c r="Q6" s="40"/>
+      <c r="Q6" s="40">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
       <c r="R6" s="40"/>
-      <c r="S6" s="42"/>
+      <c r="S6" s="42">
+        <f t="shared" si="2"/>
+        <v>57.5</v>
+      </c>
       <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
+      <c r="U6" s="40">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
       <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
+      <c r="W6" s="40">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
       <c r="X6" s="40"/>
       <c r="Z6" s="32"/>
       <c r="AB6" s="17" t="s">
@@ -58861,11 +59032,11 @@
         <v>265</v>
       </c>
       <c r="H7" s="24">
-        <f t="shared" ref="H7:H9" si="1">I6+1</f>
+        <f t="shared" ref="H7:H9" si="5">I6+1</f>
         <v>43537</v>
       </c>
       <c r="I7" s="24">
-        <f t="shared" ref="I7:I9" si="2">I6+14</f>
+        <f t="shared" ref="I7:I9" si="6">I6+14</f>
         <v>43550</v>
       </c>
       <c r="J7" s="35">
@@ -58884,13 +59055,25 @@
       <c r="N7" s="33"/>
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
-      <c r="Q7" s="40"/>
+      <c r="Q7" s="40">
+        <f t="shared" si="1"/>
+        <v>98.275862068965509</v>
+      </c>
       <c r="R7" s="40"/>
-      <c r="S7" s="42"/>
+      <c r="S7" s="42">
+        <f t="shared" si="2"/>
+        <v>37.672413793103445</v>
+      </c>
       <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
+      <c r="U7" s="40">
+        <f t="shared" si="3"/>
+        <v>19.655172413793103</v>
+      </c>
       <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
+      <c r="W7" s="40">
+        <f t="shared" si="4"/>
+        <v>9.8275862068965516</v>
+      </c>
       <c r="X7" s="40"/>
       <c r="Z7" s="32"/>
       <c r="AB7" s="17" t="s">
@@ -58910,11 +59093,11 @@
         <v>266</v>
       </c>
       <c r="H8" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>43551</v>
       </c>
       <c r="I8" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>43564</v>
       </c>
       <c r="J8" s="35">
@@ -58933,13 +59116,25 @@
       <c r="N8" s="33"/>
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
-      <c r="Q8" s="40"/>
+      <c r="Q8" s="40">
+        <f t="shared" si="1"/>
+        <v>46.551724137931025</v>
+      </c>
       <c r="R8" s="40"/>
-      <c r="S8" s="42"/>
+      <c r="S8" s="42">
+        <f t="shared" si="2"/>
+        <v>17.844827586206893</v>
+      </c>
       <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
+      <c r="U8" s="40">
+        <f t="shared" si="3"/>
+        <v>9.3103448275862064</v>
+      </c>
       <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
+      <c r="W8" s="40">
+        <f t="shared" si="4"/>
+        <v>4.6551724137931032</v>
+      </c>
       <c r="X8" s="40"/>
       <c r="Z8" s="32"/>
       <c r="AB8" s="17" t="s">
@@ -58963,11 +59158,11 @@
         <v>267</v>
       </c>
       <c r="H9" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>43565</v>
       </c>
       <c r="I9" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>43578</v>
       </c>
       <c r="J9" s="74">
@@ -58986,13 +59181,25 @@
       <c r="N9" s="77"/>
       <c r="O9" s="77"/>
       <c r="P9" s="77"/>
-      <c r="Q9" s="71"/>
+      <c r="Q9" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
+      <c r="S9" s="71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
+      <c r="W9" s="71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="X9" s="71"/>
       <c r="Z9" s="32"/>
       <c r="AB9" s="17" t="s">
@@ -60300,132 +60507,116 @@
         <v>43508</v>
       </c>
       <c r="D4" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>323</v>
       </c>
       <c r="E4" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>300</v>
       </c>
       <c r="F4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="G4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>267.5</v>
       </c>
       <c r="H4" s="40">
         <f t="shared" si="0"/>
-        <v>1550.125</v>
+        <v>60</v>
       </c>
       <c r="I4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>263</v>
       </c>
       <c r="J4" s="33">
         <f t="shared" ref="J4" si="12" xml:space="preserve"> G4/D4</f>
-        <v>0.2699831260546216</v>
+        <v>0.82817337461300311</v>
       </c>
       <c r="K4" s="33">
         <f t="shared" ref="K4" si="13" xml:space="preserve"> H4/D4</f>
-        <v>0.77501406162114872</v>
+        <v>0.18575851393188855</v>
       </c>
       <c r="L4" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="M4" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>115</v>
       </c>
       <c r="N4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="O4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="P4" s="40">
         <f t="shared" ref="P4" si="14">L4-Q4</f>
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="R4" s="33">
         <f t="shared" ref="R4" si="15" xml:space="preserve"> O4/L4</f>
-        <v>0.9</v>
+        <v>0.73636363636363633</v>
       </c>
       <c r="S4" s="33">
         <f t="shared" ref="S4" si="16" xml:space="preserve"> P4/L4</f>
-        <v>0.25</v>
+        <v>0.33636363636363636</v>
       </c>
       <c r="T4" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="U4" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>60</v>
       </c>
       <c r="V4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="W4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="X4" s="40">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="Y4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="Z4" s="33">
         <f t="shared" ref="Z4" si="17" xml:space="preserve"> W4/T4</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="33">
         <f t="shared" ref="AA4" si="18">X4/T4</f>
-        <v>0.25</v>
+        <v>0.20253164556962025</v>
       </c>
       <c r="AB4" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="AC4" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>30</v>
       </c>
       <c r="AD4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AE4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="AF4" s="40">
         <f t="shared" ref="AF4" si="19">AB4-AG4</f>
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="AG4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AH4" s="33">
         <f t="shared" ref="AH4" si="20" xml:space="preserve"> AE4/AB4</f>
-        <v>0.9</v>
+        <v>0.61702127659574468</v>
       </c>
       <c r="AI4" s="33">
         <f t="shared" ref="AI4" si="21">AF4/AB4</f>
-        <v>0.25</v>
+        <v>6.3829787234042548E-2</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.45">
@@ -60438,50 +60629,134 @@
       <c r="C5" s="60">
         <v>43522</v>
       </c>
-      <c r="D5" s="57"/>
+      <c r="D5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E5" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>300</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="59"/>
+      <c r="F5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H5" s="40">
+        <f t="shared" ref="H5" si="22">D5-I5</f>
+        <v>1550.125</v>
+      </c>
+      <c r="I5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J5" s="33">
+        <f t="shared" ref="J5" si="23" xml:space="preserve"> G5/D5</f>
+        <v>0.2699831260546216</v>
+      </c>
+      <c r="K5" s="33">
+        <f t="shared" ref="K5" si="24" xml:space="preserve"> H5/D5</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L5" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>200</v>
+      </c>
       <c r="M5" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>115</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="57"/>
+      <c r="N5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>180</v>
+      </c>
+      <c r="P5" s="40">
+        <f t="shared" ref="P5" si="25">L5-Q5</f>
+        <v>50</v>
+      </c>
+      <c r="Q5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>150</v>
+      </c>
+      <c r="R5" s="33">
+        <f t="shared" ref="R5" si="26" xml:space="preserve"> O5/L5</f>
+        <v>0.9</v>
+      </c>
+      <c r="S5" s="33">
+        <f t="shared" ref="S5" si="27" xml:space="preserve"> P5/L5</f>
+        <v>0.25</v>
+      </c>
+      <c r="T5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>200</v>
+      </c>
       <c r="U5" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>60</v>
       </c>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="57"/>
+      <c r="V5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>180</v>
+      </c>
+      <c r="X5" s="40">
+        <f t="shared" ref="X5" si="28">T5-Y5</f>
+        <v>50</v>
+      </c>
+      <c r="Y5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>150</v>
+      </c>
+      <c r="Z5" s="33">
+        <f t="shared" ref="Z5" si="29" xml:space="preserve"> W5/T5</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA5" s="33">
+        <f t="shared" ref="AA5" si="30">X5/T5</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>200</v>
+      </c>
       <c r="AC5" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>30</v>
       </c>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
+      <c r="AD5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>180</v>
+      </c>
+      <c r="AF5" s="40">
+        <f t="shared" ref="AF5" si="31">AB5-AG5</f>
+        <v>50</v>
+      </c>
+      <c r="AG5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>150</v>
+      </c>
+      <c r="AH5" s="33">
+        <f t="shared" ref="AH5" si="32" xml:space="preserve"> AE5/AB5</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI5" s="33">
+        <f t="shared" ref="AI5" si="33">AF5/AB5</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -61226,35 +61501,41 @@
         <v>262</v>
       </c>
       <c r="C16">
+        <v>55.5</v>
+      </c>
+      <c r="D16">
+        <v>146.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17">
         <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
         <v>1460.125</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <f>GETPIVOTDATA("Story Points",$G$2)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>267</v>
       </c>

--- a/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{AE9B300D-C5E4-418E-9279-4B73585F0CE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{982E981B-6EA6-4849-AA29-53C33CAC38CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1815,10 +1815,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.1864406779661017</c:v>
+                  <c:v>0.28813559322033899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81355932203389836</c:v>
+                  <c:v>0.71186440677966101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4979,10 +4979,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.1864406779661017</c:v>
+                  <c:v>0.28813559322033899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81355932203389836</c:v>
+                  <c:v>0.71186440677966101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8330,10 +8330,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.1864406779661017</c:v>
+                  <c:v>0.28813559322033899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81355932203389836</c:v>
+                  <c:v>0.71186440677966101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22166,10 +22166,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.1864406779661017</c:v>
+                  <c:v>0.28813559322033899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81355932203389836</c:v>
+                  <c:v>0.71186440677966101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -40976,7 +40976,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>19%</a:t>
+            <a:t>29%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41389,6 +41389,7 @@
     <xdr:sp macro="" textlink="_BugsData!A2">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="TextBox 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9CF293-19E2-464F-AE63-4050B49974D3}"/>
@@ -41479,7 +41480,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -41517,7 +41518,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -41616,7 +41617,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>19%</a:t>
+            <a:t>29%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42292,7 +42293,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>19%</a:t>
+            <a:t>29%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42799,7 +42800,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>19%</a:t>
+            <a:t>29%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42816,7 +42817,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43509.376706249997" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43517.569728587965" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -48306,8 +48307,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48403,7 +48404,7 @@
   <pageFields count="3">
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -48421,2703 +48422,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="42">
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="17"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="39">
-        <item x="0"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="34"/>
-        <item m="1" x="27"/>
-        <item m="1" x="22"/>
-        <item m="1" x="16"/>
-        <item m="1" x="10"/>
-        <item m="1" x="35"/>
-        <item m="1" x="21"/>
-        <item m="1" x="37"/>
-        <item m="1" x="32"/>
-        <item m="1" x="25"/>
-        <item m="1" x="20"/>
-        <item m="1" x="13"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="26"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="31"/>
-        <item m="1" x="33"/>
-        <item m="1" x="36"/>
-        <item x="1"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item m="1" x="30"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="32" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="42">
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="17"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -51513,676 +48817,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="8" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -52632,9 +49267,2916 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="42">
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="17"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="39">
+        <item x="0"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="34"/>
+        <item m="1" x="27"/>
+        <item m="1" x="22"/>
+        <item m="1" x="16"/>
+        <item m="1" x="10"/>
+        <item m="1" x="35"/>
+        <item m="1" x="21"/>
+        <item m="1" x="37"/>
+        <item m="1" x="32"/>
+        <item m="1" x="25"/>
+        <item m="1" x="20"/>
+        <item m="1" x="13"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="26"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="31"/>
+        <item m="1" x="33"/>
+        <item m="1" x="36"/>
+        <item x="1"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item m="1" x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="32" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="42">
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="17"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52730,7 +52272,466 @@
   <pageFields count="3">
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="8" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -58566,9 +58567,9 @@
     <col min="2" max="2" width="8.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -58640,7 +58641,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.1864406779661017</v>
+        <v>0.28813559322033899</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -58718,7 +58719,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.81355932203389836</v>
+        <v>0.71186440677966101</v>
       </c>
       <c r="D3" s="26">
         <v>43495</v>
@@ -58960,7 +58961,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43509</v>
+        <v>43517</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>264</v>
@@ -59505,7 +59506,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.1864406779661017</v>
+        <v>0.28813559322033899</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59514,7 +59515,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.81355932203389836</v>
+        <v>0.71186440677966101</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{982E981B-6EA6-4849-AA29-53C33CAC38CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{8C2087D0-65D4-4082-8DDA-F3DEA36A8FF9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId19"/>
+    <pivotCache cacheId="46" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1815,10 +1815,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.28813559322033899</c:v>
+                  <c:v>0.3559322033898305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71186440677966101</c:v>
+                  <c:v>0.64406779661016955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2325,6 +2325,9 @@
                   <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3776,6 +3779,9 @@
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4121,6 +4127,9 @@
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4194,6 +4203,9 @@
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4269,6 +4281,9 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4342,6 +4357,9 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -4979,10 +4997,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.28813559322033899</c:v>
+                  <c:v>0.3559322033898305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71186440677966101</c:v>
+                  <c:v>0.64406779661016955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5495,6 +5513,9 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -6955,6 +6976,9 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7518,6 +7542,9 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7591,6 +7618,9 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7666,6 +7696,9 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7739,6 +7772,9 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8330,10 +8366,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.28813559322033899</c:v>
+                  <c:v>0.3559322033898305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71186440677966101</c:v>
+                  <c:v>0.64406779661016955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8840,6 +8876,9 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9281,6 +9320,9 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9634,6 +9676,9 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9707,6 +9752,9 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9782,6 +9830,9 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -9855,6 +9906,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11279,6 +11333,9 @@
                   <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1460.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11408,6 +11465,9 @@
                   <c:v>146.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15046,6 +15106,9 @@
                   <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -15280,7 +15343,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint Saturn2 Progress</c:v>
+              <c:v>Sprint Saturn3 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -15769,10 +15832,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -20103,6 +20166,9 @@
                   <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>182.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20448,6 +20514,9 @@
                   <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>323.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20521,6 +20590,9 @@
                   <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>323.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20596,6 +20668,9 @@
                   <c:v>267.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>301.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -20669,6 +20744,9 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -22166,10 +22244,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.28813559322033899</c:v>
+                  <c:v>0.3559322033898305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71186440677966101</c:v>
+                  <c:v>0.64406779661016955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -40976,7 +41054,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>29%</a:t>
+            <a:t>36%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41354,7 +41432,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>21</a:t>
+            <a:t>26</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41617,7 +41695,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>29%</a:t>
+            <a:t>36%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42293,7 +42371,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>29%</a:t>
+            <a:t>36%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42800,7 +42878,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>29%</a:t>
+            <a:t>36%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42817,7 +42895,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43517.569728587965" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43523.341063888889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -42928,10 +43006,10 @@
         <s v="Reuse"/>
         <s v="Drag &amp; Drop"/>
         <s v="Diagram Editor"/>
+        <s v="DevOps" u="1"/>
+        <s v="Artifact List" u="1"/>
         <s v="Cross Project Move" u="1"/>
-        <s v="Artifact List" u="1"/>
         <s v="Excel Import" u="1"/>
-        <s v="DevOps" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Labels" numFmtId="0">
@@ -43084,8 +43162,8 @@
         <m/>
         <s v="Saturn"/>
         <s v="Rocket"/>
+        <s v="Quasar" u="1"/>
         <s v="Pegasus" u="1"/>
-        <s v="Quasar" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Priority" numFmtId="0">
@@ -43140,8 +43218,8 @@
         <s v="ngStars"/>
         <s v="Alpha"/>
         <s v="Titan"/>
+        <s v="QA" u="1"/>
         <s v="SoftTeco" u="1"/>
-        <s v="QA" u="1"/>
         <s v="TechComm" u="1"/>
       </sharedItems>
     </cacheField>
@@ -44610,7 +44688,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44659,7 +44737,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44708,7 +44786,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44757,7 +44835,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44806,7 +44884,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44855,7 +44933,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44904,7 +44982,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48307,8 +48385,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48338,9 +48416,9 @@
         <item m="1" x="6"/>
         <item x="4"/>
         <item x="1"/>
-        <item m="1" x="5"/>
         <item m="1" x="7"/>
         <item m="1" x="8"/>
+        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -48370,8 +48448,123 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
         <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -48421,9 +48614,2041 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="42">
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="17"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="39">
+        <item x="0"/>
+        <item m="1" x="15"/>
+        <item m="1" x="8"/>
+        <item m="1" x="34"/>
+        <item m="1" x="27"/>
+        <item m="1" x="22"/>
+        <item m="1" x="16"/>
+        <item m="1" x="10"/>
+        <item m="1" x="35"/>
+        <item m="1" x="21"/>
+        <item m="1" x="37"/>
+        <item m="1" x="32"/>
+        <item m="1" x="25"/>
+        <item m="1" x="20"/>
+        <item m="1" x="13"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="26"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="31"/>
+        <item m="1" x="33"/>
+        <item m="1" x="36"/>
+        <item x="1"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item m="1" x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="33" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="42">
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="17"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48453,9 +50678,9 @@
         <item m="1" x="6"/>
         <item x="4"/>
         <item x="1"/>
-        <item m="1" x="5"/>
         <item m="1" x="7"/>
         <item m="1" x="8"/>
+        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -48485,8 +50710,1083 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
         <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="8" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -48817,9 +52117,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48843,15 +52143,164 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="10">
         <item x="0"/>
         <item m="1" x="6"/>
         <item x="4"/>
         <item x="1"/>
-        <item m="1" x="5"/>
         <item m="1" x="7"/>
         <item m="1" x="8"/>
+        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -48881,8 +52330,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -49267,2041 +52716,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="42">
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="17"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="39">
-        <item x="0"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="34"/>
-        <item m="1" x="27"/>
-        <item m="1" x="22"/>
-        <item m="1" x="16"/>
-        <item m="1" x="10"/>
-        <item m="1" x="35"/>
-        <item m="1" x="21"/>
-        <item m="1" x="37"/>
-        <item m="1" x="32"/>
-        <item m="1" x="25"/>
-        <item m="1" x="20"/>
-        <item m="1" x="13"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="26"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="31"/>
-        <item m="1" x="33"/>
-        <item m="1" x="36"/>
-        <item x="1"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item m="1" x="30"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="32" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="42">
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="17"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -51325,25 +52742,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51363,760 +52767,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -52158,580 +52810,6 @@
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
     <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="8" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -54995,9 +55073,12 @@
       <c r="K8" t="s">
         <v>263</v>
       </c>
+      <c r="L8">
+        <v>85</v>
+      </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.45">
@@ -55066,11 +55147,11 @@
       </c>
       <c r="L13">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>73.5</v>
+        <v>158.5</v>
       </c>
       <c r="M13">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>73.5</v>
+        <v>158.5</v>
       </c>
     </row>
   </sheetData>
@@ -55118,7 +55199,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Saturn2</v>
+        <v>Saturn3</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55132,7 +55213,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55172,7 +55253,7 @@
         <v>148</v>
       </c>
       <c r="E8" s="20">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -55180,7 +55261,7 @@
         <v>176</v>
       </c>
       <c r="E9" s="20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -55212,7 +55293,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55221,7 +55302,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55230,7 +55311,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint Saturn2 Progress</v>
+        <v>Sprint Saturn3 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -56630,7 +56711,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn2</v>
+        <v>Saturn3</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -56654,7 +56735,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn2</v>
+        <v>Saturn3</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>176</v>
@@ -56678,7 +56759,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn2</v>
+        <v>Saturn3</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -56702,7 +56783,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn2</v>
+        <v>Saturn3</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -56726,7 +56807,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn2</v>
+        <v>Saturn3</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -56750,7 +56831,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn2</v>
+        <v>Saturn3</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -56771,7 +56852,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn2</v>
+        <v>Saturn3</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -58563,11 +58644,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
@@ -58641,7 +58722,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.28813559322033899</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -58719,7 +58800,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.71186440677966101</v>
+        <v>0.64406779661016955</v>
       </c>
       <c r="D3" s="26">
         <v>43495</v>
@@ -58889,52 +58970,44 @@
         <v>0.32758620689655171</v>
       </c>
       <c r="M5" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.44</v>
       </c>
       <c r="N5" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
       <c r="O5" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
-        <v>0.25</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="P5" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="Q5" s="40">
         <f t="shared" ref="Q5:Q9" si="1">$Q$25*(100%-K5)</f>
         <v>201.72413793103448</v>
       </c>
       <c r="R5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>182.5</v>
       </c>
       <c r="S5" s="42">
         <f t="shared" ref="S5:S9" si="2">$Q$26*(100%-K5)</f>
         <v>77.327586206896555</v>
       </c>
       <c r="T5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="U5" s="40">
         <f t="shared" ref="U5:U9" si="3">$Q$27*(100%-L5)</f>
         <v>40.344827586206897</v>
       </c>
       <c r="V5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="W5" s="40">
         <f t="shared" ref="W5:W9" si="4">$Q$28*(100%-K5)</f>
         <v>20.172413793103448</v>
       </c>
       <c r="X5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="Z5" s="32"/>
       <c r="AB5" s="16" t="s">
@@ -58961,7 +59034,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43517</v>
+        <v>43523</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>264</v>
@@ -58986,30 +59059,54 @@
         <f>SUM($J$4:J6)/SUM($J$4:$J$9)</f>
         <v>0.5</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
+      <c r="M6" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N6" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O6" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P6" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q6" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q6" si="5">$Q$25*(100%-K6)</f>
         <v>150</v>
       </c>
-      <c r="R6" s="40"/>
+      <c r="R6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S6" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="S6" si="6">$Q$26*(100%-K6)</f>
         <v>57.5</v>
       </c>
-      <c r="T6" s="40"/>
+      <c r="T6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>150</v>
+      </c>
       <c r="U6" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U6" si="7">$Q$27*(100%-L6)</f>
         <v>30</v>
       </c>
-      <c r="V6" s="40"/>
+      <c r="V6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
+        <v>150</v>
+      </c>
       <c r="W6" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="W6" si="8">$Q$28*(100%-K6)</f>
         <v>15</v>
       </c>
-      <c r="X6" s="40"/>
+      <c r="X6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
+        <v>150</v>
+      </c>
       <c r="Z6" s="32"/>
       <c r="AB6" s="17" t="s">
         <v>186</v>
@@ -59033,11 +59130,11 @@
         <v>265</v>
       </c>
       <c r="H7" s="24">
-        <f t="shared" ref="H7:H9" si="5">I6+1</f>
+        <f t="shared" ref="H7:H9" si="9">I6+1</f>
         <v>43537</v>
       </c>
       <c r="I7" s="24">
-        <f t="shared" ref="I7:I9" si="6">I6+14</f>
+        <f t="shared" ref="I7:I9" si="10">I6+14</f>
         <v>43550</v>
       </c>
       <c r="J7" s="35">
@@ -59094,11 +59191,11 @@
         <v>266</v>
       </c>
       <c r="H8" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43551</v>
       </c>
       <c r="I8" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>43564</v>
       </c>
       <c r="J8" s="35">
@@ -59159,11 +59256,11 @@
         <v>267</v>
       </c>
       <c r="H9" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43565</v>
       </c>
       <c r="I9" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>43578</v>
       </c>
       <c r="J9" s="74">
@@ -59506,7 +59603,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.28813559322033899</v>
+        <v>0.3559322033898305</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59515,7 +59612,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.71186440677966101</v>
+        <v>0.64406779661016955</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -60631,132 +60728,116 @@
         <v>43522</v>
       </c>
       <c r="D5" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>323.5</v>
       </c>
       <c r="E5" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>300</v>
       </c>
       <c r="F5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>323.5</v>
       </c>
       <c r="G5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>301.5</v>
       </c>
       <c r="H5" s="40">
         <f t="shared" ref="H5" si="22">D5-I5</f>
-        <v>1550.125</v>
+        <v>141</v>
       </c>
       <c r="I5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>182.5</v>
       </c>
       <c r="J5" s="33">
         <f t="shared" ref="J5" si="23" xml:space="preserve"> G5/D5</f>
-        <v>0.2699831260546216</v>
+        <v>0.93199381761978362</v>
       </c>
       <c r="K5" s="33">
         <f t="shared" ref="K5" si="24" xml:space="preserve"> H5/D5</f>
-        <v>0.77501406162114872</v>
+        <v>0.43585780525502316</v>
       </c>
       <c r="L5" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="M5" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>115</v>
       </c>
       <c r="N5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="O5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="P5" s="40">
         <f t="shared" ref="P5" si="25">L5-Q5</f>
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="R5" s="33">
         <f t="shared" ref="R5" si="26" xml:space="preserve"> O5/L5</f>
-        <v>0.9</v>
+        <v>0.95495495495495497</v>
       </c>
       <c r="S5" s="33">
         <f t="shared" ref="S5" si="27" xml:space="preserve"> P5/L5</f>
-        <v>0.25</v>
+        <v>0.64864864864864868</v>
       </c>
       <c r="T5" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="U5" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>60</v>
       </c>
       <c r="V5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="W5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="X5" s="40">
         <f t="shared" ref="X5" si="28">T5-Y5</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="Z5" s="33">
         <f t="shared" ref="Z5" si="29" xml:space="preserve"> W5/T5</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="33">
         <f t="shared" ref="AA5" si="30">X5/T5</f>
-        <v>0.25</v>
+        <v>0.569620253164557</v>
       </c>
       <c r="AB5" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="AC5" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>30</v>
       </c>
       <c r="AD5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AE5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="AF5" s="40">
         <f t="shared" ref="AF5" si="31">AB5-AG5</f>
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="AG5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="AH5" s="33">
         <f t="shared" ref="AH5" si="32" xml:space="preserve"> AE5/AB5</f>
-        <v>0.9</v>
+        <v>0.63829787234042556</v>
       </c>
       <c r="AI5" s="33">
         <f t="shared" ref="AI5" si="33">AF5/AB5</f>
-        <v>0.25</v>
+        <v>0.1702127659574468</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.45">
@@ -60769,50 +60850,134 @@
       <c r="C6" s="60">
         <v>43536</v>
       </c>
-      <c r="D6" s="57"/>
+      <c r="D6" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E6" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>300</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="59"/>
+      <c r="F6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H6" s="40">
+        <f t="shared" ref="H6" si="34">D6-I6</f>
+        <v>1550.125</v>
+      </c>
+      <c r="I6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J6" s="33">
+        <f t="shared" ref="J6" si="35" xml:space="preserve"> G6/D6</f>
+        <v>0.2699831260546216</v>
+      </c>
+      <c r="K6" s="33">
+        <f t="shared" ref="K6" si="36" xml:space="preserve"> H6/D6</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L6" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>200</v>
+      </c>
       <c r="M6" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>115</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="57"/>
+      <c r="N6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>180</v>
+      </c>
+      <c r="P6" s="40">
+        <f t="shared" ref="P6" si="37">L6-Q6</f>
+        <v>50</v>
+      </c>
+      <c r="Q6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>150</v>
+      </c>
+      <c r="R6" s="33">
+        <f t="shared" ref="R6" si="38" xml:space="preserve"> O6/L6</f>
+        <v>0.9</v>
+      </c>
+      <c r="S6" s="33">
+        <f t="shared" ref="S6" si="39" xml:space="preserve"> P6/L6</f>
+        <v>0.25</v>
+      </c>
+      <c r="T6" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>200</v>
+      </c>
       <c r="U6" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>60</v>
       </c>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="57"/>
+      <c r="V6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>180</v>
+      </c>
+      <c r="X6" s="40">
+        <f t="shared" ref="X6" si="40">T6-Y6</f>
+        <v>50</v>
+      </c>
+      <c r="Y6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>150</v>
+      </c>
+      <c r="Z6" s="33">
+        <f t="shared" ref="Z6" si="41" xml:space="preserve"> W6/T6</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA6" s="33">
+        <f t="shared" ref="AA6" si="42">X6/T6</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB6" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>200</v>
+      </c>
       <c r="AC6" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>30</v>
       </c>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
+      <c r="AD6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>180</v>
+      </c>
+      <c r="AF6" s="40">
+        <f t="shared" ref="AF6" si="43">AB6-AG6</f>
+        <v>50</v>
+      </c>
+      <c r="AG6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>150</v>
+      </c>
+      <c r="AH6" s="33">
+        <f t="shared" ref="AH6" si="44" xml:space="preserve"> AE6/AB6</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI6" s="33">
+        <f t="shared" ref="AI6" si="45">AF6/AB6</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -61513,17 +61678,23 @@
         <v>263</v>
       </c>
       <c r="C17">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1460.125</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <f>GETPIVOTDATA("Story Points",$G$2)</f>
-        <v>35</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>264</v>
+      </c>
+      <c r="C18">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1460.125</v>
+      </c>
+      <c r="D18">
+        <f>GETPIVOTDATA("Story Points",$G$2)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{8C2087D0-65D4-4082-8DDA-F3DEA36A8FF9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{CCE36B39-C811-4D4F-9606-96227F3537E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId19"/>
+    <pivotCache cacheId="127" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1815,10 +1815,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.3559322033898305</c:v>
+                  <c:v>0.52542372881355937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64406779661016955</c:v>
+                  <c:v>0.47457627118644063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2328,6 +2328,9 @@
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3782,6 +3785,9 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4130,6 +4136,9 @@
                   <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4206,6 +4215,9 @@
                   <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4284,6 +4296,9 @@
                   <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4360,6 +4375,9 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -4997,10 +5015,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.3559322033898305</c:v>
+                  <c:v>0.52542372881355937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64406779661016955</c:v>
+                  <c:v>0.47457627118644063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5516,6 +5534,9 @@
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -6979,6 +7000,9 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7545,6 +7569,9 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7621,6 +7648,9 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7699,6 +7729,9 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7775,6 +7808,9 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8366,10 +8402,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.3559322033898305</c:v>
+                  <c:v>0.52542372881355937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64406779661016955</c:v>
+                  <c:v>0.47457627118644063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8879,6 +8915,9 @@
                   <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9323,6 +9362,9 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9679,6 +9721,9 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9755,6 +9800,9 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9833,6 +9881,9 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -9909,6 +9960,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11336,6 +11390,9 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1460.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11468,6 +11525,9 @@
                   <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15109,6 +15169,9 @@
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -15343,7 +15406,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint Saturn3 Progress</c:v>
+              <c:v>Sprint Saturn4 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -15832,7 +15895,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -20169,6 +20232,9 @@
                   <c:v>182.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>143.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20517,6 +20583,9 @@
                   <c:v>323.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>328.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20593,6 +20662,9 @@
                   <c:v>323.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>328.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20671,6 +20743,9 @@
                   <c:v>301.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>306.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -20747,6 +20822,9 @@
                   <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -22244,10 +22322,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.3559322033898305</c:v>
+                  <c:v>0.52542372881355937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64406779661016955</c:v>
+                  <c:v>0.47457627118644063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41054,7 +41132,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>36%</a:t>
+            <a:t>53%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41432,7 +41510,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>26</a:t>
+            <a:t>16</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41695,7 +41773,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>36%</a:t>
+            <a:t>53%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42371,7 +42449,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>36%</a:t>
+            <a:t>53%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42878,7 +42956,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>36%</a:t>
+            <a:t>53%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42895,7 +42973,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43523.341063888889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43537.309178124997" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -44688,7 +44766,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44737,7 +44815,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44786,7 +44864,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44835,7 +44913,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44884,7 +44962,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44933,7 +45011,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44982,7 +45060,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48385,237 +48463,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48784,8 +48632,397 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="127" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="127" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48943,7 +49180,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -49067,7 +49304,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49173,7 +49410,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49413,7 +49650,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49655,7 +49892,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49817,7 +50054,7 @@
   </colItems>
   <pageFields count="3">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="33" hier="-1"/>
+    <pageField fld="30" item="34" hier="-1"/>
     <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
@@ -49952,7 +50189,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -50225,7 +50462,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -50647,7 +50884,518 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="127" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="8" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="127" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="127" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50988,8 +51736,157 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -51332,942 +52229,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="8" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="8" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="127" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52716,8 +52679,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="127" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52810,6 +52773,121 @@
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
     <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="127" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="8" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -55091,9 +55169,12 @@
       <c r="K9" t="s">
         <v>264</v>
       </c>
+      <c r="L9">
+        <v>50.625</v>
+      </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50.625</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.45">
@@ -55147,11 +55228,11 @@
       </c>
       <c r="L13">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>158.5</v>
+        <v>209.125</v>
       </c>
       <c r="M13">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>158.5</v>
+        <v>209.125</v>
       </c>
     </row>
   </sheetData>
@@ -55181,9 +55262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -55199,7 +55278,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Saturn3</v>
+        <v>Saturn4</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55213,7 +55292,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55253,7 +55332,7 @@
         <v>148</v>
       </c>
       <c r="E8" s="20">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -55293,7 +55372,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55302,7 +55381,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55311,7 +55390,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint Saturn3 Progress</v>
+        <v>Sprint Saturn4 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -56711,7 +56790,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn3</v>
+        <v>Saturn4</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -56735,7 +56814,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn3</v>
+        <v>Saturn4</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>176</v>
@@ -56759,7 +56838,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn3</v>
+        <v>Saturn4</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -56783,7 +56862,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn3</v>
+        <v>Saturn4</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -56807,7 +56886,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn3</v>
+        <v>Saturn4</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -56831,7 +56910,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn3</v>
+        <v>Saturn4</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -56852,7 +56931,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn3</v>
+        <v>Saturn4</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -58644,13 +58723,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -58722,7 +58801,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.3559322033898305</v>
+        <v>0.52542372881355937</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -58800,7 +58879,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.64406779661016955</v>
+        <v>0.47457627118644063</v>
       </c>
       <c r="D3" s="26">
         <v>43495</v>
@@ -59034,7 +59113,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43523</v>
+        <v>43537</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>264</v>
@@ -59060,52 +59139,44 @@
         <v>0.5</v>
       </c>
       <c r="M6" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N6" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>0.25</v>
+        <v>0.69</v>
       </c>
       <c r="O6" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
-        <v>0.25</v>
+        <v>0.73</v>
       </c>
       <c r="P6" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="Q6" s="40">
         <f t="shared" ref="Q6" si="5">$Q$25*(100%-K6)</f>
         <v>150</v>
       </c>
       <c r="R6" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>143.5</v>
       </c>
       <c r="S6" s="42">
         <f t="shared" ref="S6" si="6">$Q$26*(100%-K6)</f>
         <v>57.5</v>
       </c>
       <c r="T6" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="U6" s="40">
         <f t="shared" ref="U6" si="7">$Q$27*(100%-L6)</f>
         <v>30</v>
       </c>
       <c r="V6" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="W6" s="40">
         <f t="shared" ref="W6" si="8">$Q$28*(100%-K6)</f>
         <v>15</v>
       </c>
       <c r="X6" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="Z6" s="32"/>
       <c r="AB6" s="17" t="s">
@@ -59149,30 +59220,54 @@
         <f>SUM($J$4:J7)/SUM($J$4:$J$9)</f>
         <v>0.67241379310344829</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
+      <c r="M7" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N7" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O7" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P7" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q7" s="40">
         <f t="shared" si="1"/>
         <v>98.275862068965509</v>
       </c>
-      <c r="R7" s="40"/>
+      <c r="R7" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S7" s="42">
         <f t="shared" si="2"/>
         <v>37.672413793103445</v>
       </c>
-      <c r="T7" s="40"/>
+      <c r="T7" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>150</v>
+      </c>
       <c r="U7" s="40">
         <f t="shared" si="3"/>
         <v>19.655172413793103</v>
       </c>
-      <c r="V7" s="40"/>
+      <c r="V7" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
+        <v>150</v>
+      </c>
       <c r="W7" s="40">
         <f t="shared" si="4"/>
         <v>9.8275862068965516</v>
       </c>
-      <c r="X7" s="40"/>
+      <c r="X7" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
+        <v>150</v>
+      </c>
       <c r="Z7" s="32"/>
       <c r="AB7" s="17" t="s">
         <v>178</v>
@@ -59603,7 +59698,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.3559322033898305</v>
+        <v>0.52542372881355937</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59612,7 +59707,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.64406779661016955</v>
+        <v>0.47457627118644063</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -60851,132 +60946,116 @@
         <v>43536</v>
       </c>
       <c r="D6" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>328.5</v>
       </c>
       <c r="E6" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>300</v>
       </c>
       <c r="F6" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>328.5</v>
       </c>
       <c r="G6" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>306.5</v>
       </c>
       <c r="H6" s="40">
         <f t="shared" ref="H6" si="34">D6-I6</f>
-        <v>1550.125</v>
+        <v>185</v>
       </c>
       <c r="I6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>143.5</v>
       </c>
       <c r="J6" s="33">
         <f t="shared" ref="J6" si="35" xml:space="preserve"> G6/D6</f>
-        <v>0.2699831260546216</v>
+        <v>0.9330289193302892</v>
       </c>
       <c r="K6" s="33">
         <f t="shared" ref="K6" si="36" xml:space="preserve"> H6/D6</f>
-        <v>0.77501406162114872</v>
+        <v>0.56316590563165903</v>
       </c>
       <c r="L6" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="M6" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>115</v>
       </c>
       <c r="N6" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="O6" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="P6" s="40">
         <f t="shared" ref="P6" si="37">L6-Q6</f>
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="R6" s="33">
         <f t="shared" ref="R6" si="38" xml:space="preserve"> O6/L6</f>
-        <v>0.9</v>
+        <v>0.95726495726495731</v>
       </c>
       <c r="S6" s="33">
         <f t="shared" ref="S6" si="39" xml:space="preserve"> P6/L6</f>
-        <v>0.25</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="T6" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="U6" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>60</v>
       </c>
       <c r="V6" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="W6" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="X6" s="40">
         <f t="shared" ref="X6" si="40">T6-Y6</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Y6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="Z6" s="33">
         <f t="shared" ref="Z6" si="41" xml:space="preserve"> W6/T6</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="33">
         <f t="shared" ref="AA6" si="42">X6/T6</f>
-        <v>0.25</v>
+        <v>0.73417721518987344</v>
       </c>
       <c r="AB6" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="AC6" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>30</v>
       </c>
       <c r="AD6" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AE6" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="AF6" s="40">
         <f t="shared" ref="AF6" si="43">AB6-AG6</f>
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="AG6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="AH6" s="33">
         <f t="shared" ref="AH6" si="44" xml:space="preserve"> AE6/AB6</f>
-        <v>0.9</v>
+        <v>0.63043478260869568</v>
       </c>
       <c r="AI6" s="33">
         <f t="shared" ref="AI6" si="45">AF6/AB6</f>
-        <v>0.25</v>
+        <v>0.2391304347826087</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.45">
@@ -60989,50 +61068,134 @@
       <c r="C7" s="60">
         <v>43550</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E7" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>300</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="59"/>
+      <c r="F7" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H7" s="40">
+        <f t="shared" ref="H7" si="46">D7-I7</f>
+        <v>1550.125</v>
+      </c>
+      <c r="I7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J7" s="33">
+        <f t="shared" ref="J7" si="47" xml:space="preserve"> G7/D7</f>
+        <v>0.2699831260546216</v>
+      </c>
+      <c r="K7" s="33">
+        <f t="shared" ref="K7" si="48" xml:space="preserve"> H7/D7</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L7" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>200</v>
+      </c>
       <c r="M7" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>115</v>
       </c>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="57"/>
+      <c r="N7" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>180</v>
+      </c>
+      <c r="P7" s="40">
+        <f t="shared" ref="P7" si="49">L7-Q7</f>
+        <v>50</v>
+      </c>
+      <c r="Q7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>150</v>
+      </c>
+      <c r="R7" s="33">
+        <f t="shared" ref="R7" si="50" xml:space="preserve"> O7/L7</f>
+        <v>0.9</v>
+      </c>
+      <c r="S7" s="33">
+        <f t="shared" ref="S7" si="51" xml:space="preserve"> P7/L7</f>
+        <v>0.25</v>
+      </c>
+      <c r="T7" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>200</v>
+      </c>
       <c r="U7" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>60</v>
       </c>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="57"/>
+      <c r="V7" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>180</v>
+      </c>
+      <c r="X7" s="40">
+        <f t="shared" ref="X7" si="52">T7-Y7</f>
+        <v>50</v>
+      </c>
+      <c r="Y7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>150</v>
+      </c>
+      <c r="Z7" s="33">
+        <f t="shared" ref="Z7" si="53" xml:space="preserve"> W7/T7</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA7" s="33">
+        <f t="shared" ref="AA7" si="54">X7/T7</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB7" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>200</v>
+      </c>
       <c r="AC7" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>30</v>
       </c>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
+      <c r="AD7" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>180</v>
+      </c>
+      <c r="AF7" s="40">
+        <f t="shared" ref="AF7" si="55">AB7-AG7</f>
+        <v>50</v>
+      </c>
+      <c r="AG7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>150</v>
+      </c>
+      <c r="AH7" s="33">
+        <f t="shared" ref="AH7" si="56" xml:space="preserve"> AE7/AB7</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI7" s="33">
+        <f t="shared" ref="AI7" si="57">AF7/AB7</f>
+        <v>0.25</v>
+      </c>
       <c r="AL7" s="16" t="s">
         <v>135</v>
       </c>
@@ -61689,17 +61852,23 @@
         <v>264</v>
       </c>
       <c r="C18">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1460.125</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <f>GETPIVOTDATA("Story Points",$G$2)</f>
-        <v>35</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>265</v>
+      </c>
+      <c r="C19">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1460.125</v>
+      </c>
+      <c r="D19">
+        <f>GETPIVOTDATA("Story Points",$G$2)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{CCE36B39-C811-4D4F-9606-96227F3537E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{F8660DA0-8DA0-4036-A56C-47E952AB185D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="127" r:id="rId19"/>
+    <pivotCache cacheId="15" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1815,10 +1815,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.52542372881355937</c:v>
+                  <c:v>0.67796610169491522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47457627118644063</c:v>
+                  <c:v>0.32203389830508478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,6 +2331,9 @@
                   <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3788,6 +3791,9 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4139,6 +4145,9 @@
                   <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>130.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4218,6 +4227,9 @@
                   <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>130.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4299,6 +4311,9 @@
                   <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>130.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4378,6 +4393,9 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5015,10 +5033,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.52542372881355937</c:v>
+                  <c:v>0.67796610169491522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47457627118644063</c:v>
+                  <c:v>0.32203389830508478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5537,6 +5555,9 @@
                   <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7003,6 +7024,9 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7572,6 +7596,9 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7651,6 +7678,9 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7732,6 +7762,9 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7811,6 +7844,9 @@
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8402,10 +8438,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.52542372881355937</c:v>
+                  <c:v>0.67796610169491522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47457627118644063</c:v>
+                  <c:v>0.32203389830508478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8918,6 +8954,9 @@
                   <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9365,6 +9404,9 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9724,6 +9766,9 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9803,6 +9848,9 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9884,6 +9932,9 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -9963,6 +10014,9 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11393,6 +11447,9 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1460.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11528,6 +11585,9 @@
                   <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15172,6 +15232,9 @@
                   <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -15406,7 +15469,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint Saturn4 Progress</c:v>
+              <c:v>Sprint Saturn5 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -15907,7 +15970,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20235,6 +20298,9 @@
                   <c:v>143.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>105.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20586,6 +20652,9 @@
                   <c:v>328.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>359.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20665,6 +20734,9 @@
                   <c:v>328.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>359.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20746,6 +20818,9 @@
                   <c:v>306.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -20825,6 +20900,9 @@
                   <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -22322,10 +22400,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.52542372881355937</c:v>
+                  <c:v>0.67796610169491522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47457627118644063</c:v>
+                  <c:v>0.32203389830508478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41132,7 +41210,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>53%</a:t>
+            <a:t>68%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41510,7 +41588,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>16</a:t>
+            <a:t>36</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41773,7 +41851,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>53%</a:t>
+            <a:t>68%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42449,7 +42527,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>53%</a:t>
+            <a:t>68%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42956,7 +43034,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>53%</a:t>
+            <a:t>68%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42973,7 +43051,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43537.309178124997" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43550.945671412039" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -43084,10 +43162,10 @@
         <s v="Reuse"/>
         <s v="Drag &amp; Drop"/>
         <s v="Diagram Editor"/>
+        <s v="Cross Project Move" u="1"/>
+        <s v="Artifact List" u="1"/>
+        <s v="Excel Import" u="1"/>
         <s v="DevOps" u="1"/>
-        <s v="Artifact List" u="1"/>
-        <s v="Cross Project Move" u="1"/>
-        <s v="Excel Import" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Labels" numFmtId="0">
@@ -43240,8 +43318,8 @@
         <m/>
         <s v="Saturn"/>
         <s v="Rocket"/>
+        <s v="Pegasus" u="1"/>
         <s v="Quasar" u="1"/>
-        <s v="Pegasus" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Priority" numFmtId="0">
@@ -43296,8 +43374,8 @@
         <s v="ngStars"/>
         <s v="Alpha"/>
         <s v="Titan"/>
+        <s v="SoftTeco" u="1"/>
         <s v="QA" u="1"/>
-        <s v="SoftTeco" u="1"/>
         <s v="TechComm" u="1"/>
       </sharedItems>
     </cacheField>
@@ -44766,7 +44844,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44815,7 +44893,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44864,7 +44942,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44913,7 +44991,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44962,7 +45040,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45011,7 +45089,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45060,7 +45138,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48463,20 +48541,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
-        <item x="0"/>
-        <item x="6"/>
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
         <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -48488,7 +48566,20 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48513,8 +48604,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="5"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -48523,85 +48614,206 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item m="1" x="9"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
         <item x="2"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
         <item x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="35"/>
+    <field x="-2"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="5">
     <i>
+      <x/>
+    </i>
+    <i i="1">
       <x v="1"/>
     </i>
-    <i>
+    <i i="2">
       <x v="2"/>
     </i>
-    <i>
+    <i i="3">
       <x v="3"/>
     </i>
-    <i>
+    <i i="4">
       <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
+  <pageFields count="4">
     <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -48610,11 +48822,164 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="26">
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -48632,9 +48997,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="127" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48658,25 +49023,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48696,110 +49048,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="127" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -49022,7 +49272,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49053,9 +49303,9 @@
         <item m="1" x="6"/>
         <item x="4"/>
         <item x="1"/>
+        <item m="1" x="5"/>
         <item m="1" x="7"/>
         <item m="1" x="8"/>
-        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -49085,8 +49335,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="5"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -49180,7 +49430,113 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -49227,8 +49583,8 @@
         <item x="4"/>
         <item x="6"/>
         <item x="5"/>
+        <item m="1" x="10"/>
         <item m="1" x="9"/>
-        <item m="1" x="10"/>
         <item m="1" x="11"/>
         <item x="8"/>
         <item x="3"/>
@@ -49303,114 +49659,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49460,8 +49710,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="5"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -49492,8 +49742,8 @@
         <item x="4"/>
         <item x="6"/>
         <item x="5"/>
+        <item m="1" x="10"/>
         <item m="1" x="9"/>
-        <item m="1" x="10"/>
         <item m="1" x="11"/>
         <item x="8"/>
         <item x="3"/>
@@ -49650,7 +49900,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49892,7 +50142,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50054,7 +50304,7 @@
   </colItems>
   <pageFields count="3">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="34" hier="-1"/>
+    <pageField fld="30" item="35" hier="-1"/>
     <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
@@ -50189,7 +50439,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -50347,8 +50597,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="5"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -50366,8 +50616,8 @@
         <item x="4"/>
         <item x="6"/>
         <item x="5"/>
+        <item m="1" x="10"/>
         <item m="1" x="9"/>
-        <item m="1" x="10"/>
         <item h="1" m="1" x="11"/>
         <item x="8"/>
         <item x="3"/>
@@ -50462,7 +50712,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -50575,8 +50825,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="5"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -50605,8 +50855,8 @@
         <item x="4"/>
         <item x="6"/>
         <item x="5"/>
+        <item m="1" x="10"/>
         <item m="1" x="9"/>
-        <item m="1" x="10"/>
         <item h="1" m="1" x="11"/>
         <item x="8"/>
         <item x="3"/>
@@ -50884,7 +51134,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="127" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50915,9 +51165,9 @@
         <item m="1" x="6"/>
         <item x="4"/>
         <item x="1"/>
+        <item m="1" x="5"/>
         <item m="1" x="7"/>
         <item m="1" x="8"/>
-        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -50947,8 +51197,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="5"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -51280,613 +51530,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="127" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="127" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -52229,9 +51873,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="127" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52261,9 +51905,9 @@
         <item m="1" x="6"/>
         <item x="4"/>
         <item x="1"/>
+        <item m="1" x="5"/>
         <item m="1" x="7"/>
         <item m="1" x="8"/>
-        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -52273,7 +51917,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52293,8 +51937,233 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
         <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -52679,9 +52548,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="127" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52705,125 +52574,15 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="127" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="10">
         <item x="0"/>
         <item m="1" x="6"/>
         <item x="4"/>
         <item x="1"/>
+        <item m="1" x="5"/>
         <item m="1" x="7"/>
         <item m="1" x="8"/>
-        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -52853,8 +52612,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="5"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -52891,6 +52650,325 @@
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -55187,9 +55265,12 @@
       <c r="K10" t="s">
         <v>265</v>
       </c>
+      <c r="L10">
+        <v>79.5</v>
+      </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.45">
@@ -55228,11 +55309,11 @@
       </c>
       <c r="L13">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>209.125</v>
+        <v>288.625</v>
       </c>
       <c r="M13">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>209.125</v>
+        <v>288.625</v>
       </c>
     </row>
   </sheetData>
@@ -55278,7 +55359,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Saturn4</v>
+        <v>Saturn5</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55292,7 +55373,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55364,7 +55445,7 @@
         <v>186</v>
       </c>
       <c r="E12" s="20">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -55372,7 +55453,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55381,7 +55462,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55390,7 +55471,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint Saturn4 Progress</v>
+        <v>Sprint Saturn5 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -56790,7 +56871,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn4</v>
+        <v>Saturn5</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -56814,7 +56895,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn4</v>
+        <v>Saturn5</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>176</v>
@@ -56838,7 +56919,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn4</v>
+        <v>Saturn5</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -56862,7 +56943,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn4</v>
+        <v>Saturn5</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -56886,7 +56967,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn4</v>
+        <v>Saturn5</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -56910,7 +56991,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn4</v>
+        <v>Saturn5</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -56931,7 +57012,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn4</v>
+        <v>Saturn5</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -58726,7 +58807,7 @@
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
@@ -58801,7 +58882,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.52542372881355937</v>
+        <v>0.67796610169491522</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -58879,7 +58960,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.47457627118644063</v>
+        <v>0.32203389830508478</v>
       </c>
       <c r="D3" s="26">
         <v>43495</v>
@@ -59113,7 +59194,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43537</v>
+        <v>43550</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>264</v>
@@ -59221,52 +59302,44 @@
         <v>0.67241379310344829</v>
       </c>
       <c r="M7" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.71</v>
       </c>
       <c r="N7" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>0.25</v>
+        <v>0.83</v>
       </c>
       <c r="O7" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
-        <v>0.25</v>
+        <v>0.98</v>
       </c>
       <c r="P7" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="Q7" s="40">
         <f t="shared" si="1"/>
         <v>98.275862068965509</v>
       </c>
       <c r="R7" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>105.3</v>
       </c>
       <c r="S7" s="42">
         <f t="shared" si="2"/>
         <v>37.672413793103445</v>
       </c>
       <c r="T7" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>150</v>
+        <v>22.5</v>
       </c>
       <c r="U7" s="40">
         <f t="shared" si="3"/>
         <v>19.655172413793103</v>
       </c>
       <c r="V7" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="W7" s="40">
         <f t="shared" si="4"/>
         <v>9.8275862068965516</v>
       </c>
       <c r="X7" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="Z7" s="32"/>
       <c r="AB7" s="17" t="s">
@@ -59305,30 +59378,54 @@
         <f>SUM($J$4:J8)/SUM($J$4:$J$9)</f>
         <v>0.84482758620689657</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
+      <c r="M8" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N8" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P8" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q8" s="40">
         <f t="shared" si="1"/>
         <v>46.551724137931025</v>
       </c>
-      <c r="R8" s="40"/>
+      <c r="R8" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S8" s="42">
         <f t="shared" si="2"/>
         <v>17.844827586206893</v>
       </c>
-      <c r="T8" s="40"/>
+      <c r="T8" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>150</v>
+      </c>
       <c r="U8" s="40">
         <f t="shared" si="3"/>
         <v>9.3103448275862064</v>
       </c>
-      <c r="V8" s="40"/>
+      <c r="V8" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
+        <v>150</v>
+      </c>
       <c r="W8" s="40">
         <f t="shared" si="4"/>
         <v>4.6551724137931032</v>
       </c>
-      <c r="X8" s="40"/>
+      <c r="X8" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
+        <v>150</v>
+      </c>
       <c r="Z8" s="32"/>
       <c r="AB8" s="17" t="s">
         <v>260</v>
@@ -59698,7 +59795,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.52542372881355937</v>
+        <v>0.67796610169491522</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59707,7 +59804,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.47457627118644063</v>
+        <v>0.32203389830508478</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -61069,132 +61166,116 @@
         <v>43550</v>
       </c>
       <c r="D7" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>359.3</v>
       </c>
       <c r="E7" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>300</v>
       </c>
       <c r="F7" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>359.3</v>
       </c>
       <c r="G7" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>348</v>
       </c>
       <c r="H7" s="40">
         <f t="shared" ref="H7" si="46">D7-I7</f>
-        <v>1550.125</v>
+        <v>254</v>
       </c>
       <c r="I7" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>105.3</v>
       </c>
       <c r="J7" s="33">
         <f t="shared" ref="J7" si="47" xml:space="preserve"> G7/D7</f>
-        <v>0.2699831260546216</v>
+        <v>0.96854995825215695</v>
       </c>
       <c r="K7" s="33">
         <f t="shared" ref="K7" si="48" xml:space="preserve"> H7/D7</f>
-        <v>0.77501406162114872</v>
+        <v>0.70693014194266623</v>
       </c>
       <c r="L7" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>200</v>
+        <v>130.5</v>
       </c>
       <c r="M7" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>115</v>
       </c>
       <c r="N7" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>0</v>
+        <v>130.5</v>
       </c>
       <c r="O7" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>180</v>
+        <v>130.5</v>
       </c>
       <c r="P7" s="40">
         <f t="shared" ref="P7" si="49">L7-Q7</f>
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>150</v>
+        <v>22.5</v>
       </c>
       <c r="R7" s="33">
         <f t="shared" ref="R7" si="50" xml:space="preserve"> O7/L7</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S7" s="33">
         <f t="shared" ref="S7" si="51" xml:space="preserve"> P7/L7</f>
-        <v>0.25</v>
+        <v>0.82758620689655171</v>
       </c>
       <c r="T7" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="U7" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>60</v>
       </c>
       <c r="V7" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="W7" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="X7" s="40">
         <f t="shared" ref="X7" si="52">T7-Y7</f>
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="Y7" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="Z7" s="33">
         <f t="shared" ref="Z7" si="53" xml:space="preserve"> W7/T7</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="33">
         <f t="shared" ref="AA7" si="54">X7/T7</f>
-        <v>0.25</v>
+        <v>0.97530864197530864</v>
       </c>
       <c r="AB7" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="AC7" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>30</v>
       </c>
       <c r="AD7" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AE7" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="AF7" s="40">
         <f t="shared" ref="AF7" si="55">AB7-AG7</f>
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="AG7" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="AH7" s="33">
         <f t="shared" ref="AH7" si="56" xml:space="preserve"> AE7/AB7</f>
-        <v>0.9</v>
+        <v>0.875</v>
       </c>
       <c r="AI7" s="33">
         <f t="shared" ref="AI7" si="57">AF7/AB7</f>
-        <v>0.25</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="AL7" s="16" t="s">
         <v>135</v>
@@ -61213,50 +61294,134 @@
       <c r="C8" s="60">
         <v>43564</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E8" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>300</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="59"/>
+      <c r="F8" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H8" s="40">
+        <f t="shared" ref="H8" si="58">D8-I8</f>
+        <v>1550.125</v>
+      </c>
+      <c r="I8" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J8" s="33">
+        <f t="shared" ref="J8" si="59" xml:space="preserve"> G8/D8</f>
+        <v>0.2699831260546216</v>
+      </c>
+      <c r="K8" s="33">
+        <f t="shared" ref="K8" si="60" xml:space="preserve"> H8/D8</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L8" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>200</v>
+      </c>
       <c r="M8" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>115</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="57"/>
+      <c r="N8" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>180</v>
+      </c>
+      <c r="P8" s="40">
+        <f t="shared" ref="P8" si="61">L8-Q8</f>
+        <v>50</v>
+      </c>
+      <c r="Q8" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>150</v>
+      </c>
+      <c r="R8" s="33">
+        <f t="shared" ref="R8" si="62" xml:space="preserve"> O8/L8</f>
+        <v>0.9</v>
+      </c>
+      <c r="S8" s="33">
+        <f t="shared" ref="S8" si="63" xml:space="preserve"> P8/L8</f>
+        <v>0.25</v>
+      </c>
+      <c r="T8" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>200</v>
+      </c>
       <c r="U8" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>60</v>
       </c>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="57"/>
+      <c r="V8" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>180</v>
+      </c>
+      <c r="X8" s="40">
+        <f t="shared" ref="X8" si="64">T8-Y8</f>
+        <v>50</v>
+      </c>
+      <c r="Y8" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>150</v>
+      </c>
+      <c r="Z8" s="33">
+        <f t="shared" ref="Z8" si="65" xml:space="preserve"> W8/T8</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA8" s="33">
+        <f t="shared" ref="AA8" si="66">X8/T8</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB8" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>200</v>
+      </c>
       <c r="AC8" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>30</v>
       </c>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
+      <c r="AD8" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>180</v>
+      </c>
+      <c r="AF8" s="40">
+        <f t="shared" ref="AF8" si="67">AB8-AG8</f>
+        <v>50</v>
+      </c>
+      <c r="AG8" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>150</v>
+      </c>
+      <c r="AH8" s="33">
+        <f t="shared" ref="AH8" si="68" xml:space="preserve"> AE8/AB8</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI8" s="33">
+        <f t="shared" ref="AI8" si="69">AF8/AB8</f>
+        <v>0.25</v>
+      </c>
       <c r="AL8" s="16" t="s">
         <v>251</v>
       </c>
@@ -61863,17 +62028,23 @@
         <v>265</v>
       </c>
       <c r="C19">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1460.125</v>
+        <v>11.25</v>
       </c>
       <c r="D19">
-        <f>GETPIVOTDATA("Story Points",$G$2)</f>
-        <v>35</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>266</v>
+      </c>
+      <c r="C20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1460.125</v>
+      </c>
+      <c r="D20">
+        <f>GETPIVOTDATA("Story Points",$G$2)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Saturn-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{F8660DA0-8DA0-4036-A56C-47E952AB185D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{2A1C7B61-4B0B-46B4-8FBB-EB80029012D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId19"/>
+    <pivotCache cacheId="48" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1815,10 +1815,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.67796610169491522</c:v>
+                  <c:v>0.84745762711864403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32203389830508478</c:v>
+                  <c:v>0.15254237288135597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2334,6 +2334,9 @@
                   <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3794,6 +3797,9 @@
                   <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4148,6 +4154,9 @@
                   <c:v>130.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>130.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4230,6 +4239,9 @@
                   <c:v>130.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>130.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4314,6 +4326,9 @@
                   <c:v>130.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>130.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4396,6 +4411,9 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>130.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5033,10 +5051,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.67796610169491522</c:v>
+                  <c:v>0.84745762711864403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32203389830508478</c:v>
+                  <c:v>0.15254237288135597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5558,6 +5576,9 @@
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -7027,6 +7048,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7599,6 +7623,9 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7681,6 +7708,9 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7765,6 +7795,9 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7847,6 +7880,9 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8438,10 +8474,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.67796610169491522</c:v>
+                  <c:v>0.84745762711864403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32203389830508478</c:v>
+                  <c:v>0.15254237288135597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8957,6 +8993,9 @@
                   <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9407,6 +9446,9 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9769,6 +9811,9 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9851,6 +9896,9 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9935,6 +9983,9 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -10017,6 +10068,9 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11450,6 +11504,9 @@
                   <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1460.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11588,6 +11645,9 @@
                   <c:v>46.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>223.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15235,6 +15295,9 @@
                   <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -15469,7 +15532,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint Saturn5 Progress</c:v>
+              <c:v>Sprint Saturn6 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -15970,7 +16033,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20301,6 +20364,9 @@
                   <c:v>105.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20655,6 +20721,9 @@
                   <c:v>359.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>353.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20737,6 +20806,9 @@
                   <c:v>359.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>353.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20821,6 +20893,9 @@
                   <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>349.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -20903,6 +20978,9 @@
                   <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>310.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -22400,10 +22478,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.67796610169491522</c:v>
+                  <c:v>0.84745762711864403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32203389830508478</c:v>
+                  <c:v>0.15254237288135597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41210,7 +41288,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>68%</a:t>
+            <a:t>85%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41588,7 +41666,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>36</a:t>
+            <a:t>16</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41851,7 +41929,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>68%</a:t>
+            <a:t>85%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42527,7 +42605,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>68%</a:t>
+            <a:t>85%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43034,7 +43112,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>68%</a:t>
+            <a:t>85%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43051,7 +43129,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43550.945671412039" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43564.920387731479" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -43162,10 +43240,10 @@
         <s v="Reuse"/>
         <s v="Drag &amp; Drop"/>
         <s v="Diagram Editor"/>
+        <s v="DevOps" u="1"/>
+        <s v="Artifact List" u="1"/>
         <s v="Cross Project Move" u="1"/>
-        <s v="Artifact List" u="1"/>
         <s v="Excel Import" u="1"/>
-        <s v="DevOps" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Labels" numFmtId="0">
@@ -43318,8 +43396,8 @@
         <m/>
         <s v="Saturn"/>
         <s v="Rocket"/>
+        <s v="Quasar" u="1"/>
         <s v="Pegasus" u="1"/>
-        <s v="Quasar" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Priority" numFmtId="0">
@@ -43374,8 +43452,8 @@
         <s v="ngStars"/>
         <s v="Alpha"/>
         <s v="Titan"/>
+        <s v="QA" u="1"/>
         <s v="SoftTeco" u="1"/>
-        <s v="QA" u="1"/>
         <s v="TechComm" u="1"/>
       </sharedItems>
     </cacheField>
@@ -44844,7 +44922,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44893,7 +44971,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44942,7 +45020,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44991,7 +45069,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45040,7 +45118,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45089,7 +45167,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45138,7 +45216,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48541,8 +48619,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="48" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48572,9 +48650,9 @@
         <item m="1" x="6"/>
         <item x="4"/>
         <item x="1"/>
-        <item m="1" x="5"/>
         <item m="1" x="7"/>
         <item m="1" x="8"/>
+        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -48604,8 +48682,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -48638,7 +48716,7 @@
   <pageFields count="3">
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -48656,8 +48734,178 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48681,20 +48929,26 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
       <items count="10">
         <item x="0"/>
+        <item x="1"/>
         <item m="1" x="6"/>
         <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
         <item m="1" x="7"/>
         <item m="1" x="8"/>
+        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48708,19 +48962,13 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -48728,14 +48976,14 @@
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
@@ -48749,516 +48997,49 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="-2"/>
+    <field x="10"/>
   </rowFields>
   <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
   <pageFields count="3">
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
     <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
   </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -49272,7 +49053,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49303,9 +49084,9 @@
         <item m="1" x="6"/>
         <item x="4"/>
         <item x="1"/>
-        <item m="1" x="5"/>
         <item m="1" x="7"/>
         <item m="1" x="8"/>
+        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -49335,8 +49116,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -49430,7 +49211,131 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49535,132 +49440,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49710,8 +49491,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -49742,8 +49523,8 @@
         <item x="4"/>
         <item x="6"/>
         <item x="5"/>
+        <item m="1" x="9"/>
         <item m="1" x="10"/>
-        <item m="1" x="9"/>
         <item m="1" x="11"/>
         <item x="8"/>
         <item x="3"/>
@@ -49900,7 +49681,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50142,7 +49923,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50304,7 +50085,7 @@
   </colItems>
   <pageFields count="3">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="35" hier="-1"/>
+    <pageField fld="30" item="36" hier="-1"/>
     <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
@@ -50439,7 +50220,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -50597,8 +50378,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -50616,8 +50397,8 @@
         <item x="4"/>
         <item x="6"/>
         <item x="5"/>
+        <item m="1" x="9"/>
         <item m="1" x="10"/>
-        <item m="1" x="9"/>
         <item h="1" m="1" x="11"/>
         <item x="8"/>
         <item x="3"/>
@@ -50712,7 +50493,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -50825,8 +50606,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -50855,8 +50636,8 @@
         <item x="4"/>
         <item x="6"/>
         <item x="5"/>
+        <item m="1" x="9"/>
         <item m="1" x="10"/>
-        <item m="1" x="9"/>
         <item h="1" m="1" x="11"/>
         <item x="8"/>
         <item x="3"/>
@@ -51134,8 +50915,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="48" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -51165,9 +50946,9 @@
         <item m="1" x="6"/>
         <item x="4"/>
         <item x="1"/>
-        <item m="1" x="5"/>
         <item m="1" x="7"/>
         <item m="1" x="8"/>
+        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -51197,8 +50978,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -51256,7 +51037,7 @@
   <pageFields count="4">
     <pageField fld="32" item="5" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="8" hier="-1"/>
+    <pageField fld="10" item="7" hier="-1"/>
     <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="5">
@@ -51266,7 +51047,7 @@
     <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
     <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="27">
+  <chartFormats count="21">
     <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -51408,7 +51189,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
+    <chartFormat chart="9" format="19" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -51417,7 +51198,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="8">
+    <chartFormat chart="9" format="20">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -51426,7 +51207,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="9">
+    <chartFormat chart="9" format="21">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -51435,7 +51216,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="10">
+    <chartFormat chart="9" format="22">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -51444,7 +51225,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="11">
+    <chartFormat chart="9" format="23">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -51453,61 +51234,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
+    <chartFormat chart="9" format="24">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -51530,466 +51257,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="7" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="48" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52039,8 +51307,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -52098,8 +51366,282 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="48" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="48" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52130,9 +51672,9 @@
         <item m="1" x="6"/>
         <item x="4"/>
         <item x="1"/>
-        <item m="1" x="5"/>
         <item m="1" x="7"/>
         <item m="1" x="8"/>
+        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -52162,8 +51704,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -52548,8 +52090,519 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="48" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="48" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="8" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="48" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52580,9 +52633,9 @@
         <item m="1" x="6"/>
         <item x="4"/>
         <item x="1"/>
-        <item m="1" x="5"/>
         <item m="1" x="7"/>
         <item m="1" x="8"/>
+        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -52612,8 +52665,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="7">
         <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
@@ -52663,108 +52716,89 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
       <items count="9">
         <item x="0"/>
         <item x="6"/>
+        <item x="7"/>
         <item x="2"/>
         <item x="4"/>
         <item x="3"/>
         <item x="5"/>
         <item x="1"/>
-        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
+      <items count="10">
         <item x="0"/>
         <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="35"/>
+    <field x="44"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
       <x v="1"/>
     </i>
@@ -52786,6 +52820,9 @@
     <i>
       <x v="7"/>
     </i>
+    <i>
+      <x v="8"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -52793,16 +52830,14 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="1">
     <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -52811,7 +52846,103 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="26">
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -52820,156 +52951,103 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -55283,9 +55361,12 @@
       <c r="K11" t="s">
         <v>266</v>
       </c>
+      <c r="L11">
+        <v>60.75</v>
+      </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.45">
@@ -55309,11 +55390,11 @@
       </c>
       <c r="L13">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>288.625</v>
+        <v>349.375</v>
       </c>
       <c r="M13">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>288.625</v>
+        <v>349.375</v>
       </c>
     </row>
   </sheetData>
@@ -55359,7 +55440,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Saturn5</v>
+        <v>Saturn6</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55373,7 +55454,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55445,7 +55526,7 @@
         <v>186</v>
       </c>
       <c r="E12" s="20">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -55453,7 +55534,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55462,7 +55543,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55471,7 +55552,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint Saturn5 Progress</v>
+        <v>Sprint Saturn6 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -56871,7 +56952,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn5</v>
+        <v>Saturn6</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -56895,7 +56976,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn5</v>
+        <v>Saturn6</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>176</v>
@@ -56919,7 +57000,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn5</v>
+        <v>Saturn6</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -56943,7 +57024,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn5</v>
+        <v>Saturn6</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -56967,7 +57048,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn5</v>
+        <v>Saturn6</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -56991,7 +57072,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn5</v>
+        <v>Saturn6</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -57012,7 +57093,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Saturn5</v>
+        <v>Saturn6</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -58804,16 +58885,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.1328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.53125" customWidth="1"/>
     <col min="13" max="17" width="14.1328125" customWidth="1"/>
@@ -58882,7 +58963,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.67796610169491522</v>
+        <v>0.84745762711864403</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -58960,7 +59041,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.32203389830508478</v>
+        <v>0.15254237288135597</v>
       </c>
       <c r="D3" s="26">
         <v>43495</v>
@@ -59194,7 +59275,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43550</v>
+        <v>43564</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>264</v>
@@ -59379,52 +59460,44 @@
         <v>0.84482758620689657</v>
       </c>
       <c r="M8" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.88</v>
       </c>
       <c r="N8" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="O8" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P8" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="Q8" s="40">
         <f t="shared" si="1"/>
         <v>46.551724137931025</v>
       </c>
       <c r="R8" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>43</v>
       </c>
       <c r="S8" s="42">
         <f t="shared" si="2"/>
         <v>17.844827586206893</v>
       </c>
       <c r="T8" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="U8" s="40">
         <f t="shared" si="3"/>
         <v>9.3103448275862064</v>
       </c>
       <c r="V8" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="W8" s="40">
         <f t="shared" si="4"/>
         <v>4.6551724137931032</v>
       </c>
       <c r="X8" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
-        <v>150</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" s="32"/>
       <c r="AB8" s="17" t="s">
@@ -59467,30 +59540,54 @@
         <f>SUM($J$4:J9)/SUM($J$4:$J$9)</f>
         <v>1</v>
       </c>
-      <c r="M9" s="75"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
+      <c r="M9" s="75">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N9" s="77">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O9" s="77">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P9" s="77">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q9" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R9" s="71"/>
+      <c r="R9" s="71">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S9" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T9" s="71"/>
+      <c r="T9" s="71">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Reuse")</f>
+        <v>150</v>
+      </c>
       <c r="U9" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V9" s="71"/>
+      <c r="V9" s="71">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Drag &amp; Drop")</f>
+        <v>150</v>
+      </c>
       <c r="W9" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X9" s="71"/>
+      <c r="X9" s="71">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
+        <v>150</v>
+      </c>
       <c r="Z9" s="32"/>
       <c r="AB9" s="17" t="s">
         <v>261</v>
@@ -59795,7 +59892,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.67796610169491522</v>
+        <v>0.84745762711864403</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59804,7 +59901,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.32203389830508478</v>
+        <v>0.15254237288135597</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -61295,132 +61392,116 @@
         <v>43564</v>
       </c>
       <c r="D8" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>353.8</v>
       </c>
       <c r="E8" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>300</v>
       </c>
       <c r="F8" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>353.8</v>
       </c>
       <c r="G8" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>349.8</v>
       </c>
       <c r="H8" s="40">
         <f t="shared" ref="H8" si="58">D8-I8</f>
-        <v>1550.125</v>
+        <v>310.8</v>
       </c>
       <c r="I8" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>43</v>
       </c>
       <c r="J8" s="33">
         <f t="shared" ref="J8" si="59" xml:space="preserve"> G8/D8</f>
-        <v>0.2699831260546216</v>
+        <v>0.9886941775014132</v>
       </c>
       <c r="K8" s="33">
         <f t="shared" ref="K8" si="60" xml:space="preserve"> H8/D8</f>
-        <v>0.77501406162114872</v>
+        <v>0.87846240814019216</v>
       </c>
       <c r="L8" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>200</v>
+        <v>130.5</v>
       </c>
       <c r="M8" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>115</v>
       </c>
       <c r="N8" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>0</v>
+        <v>130.5</v>
       </c>
       <c r="O8" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>180</v>
+        <v>130.5</v>
       </c>
       <c r="P8" s="40">
         <f t="shared" ref="P8" si="61">L8-Q8</f>
-        <v>50</v>
+        <v>130.5</v>
       </c>
       <c r="Q8" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="R8" s="33">
         <f t="shared" ref="R8" si="62" xml:space="preserve"> O8/L8</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S8" s="33">
         <f t="shared" ref="S8" si="63" xml:space="preserve"> P8/L8</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="T8" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="U8" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>60</v>
       </c>
       <c r="V8" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="W8" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="X8" s="40">
         <f t="shared" ref="X8" si="64">T8-Y8</f>
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="Y8" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="33">
         <f t="shared" ref="Z8" si="65" xml:space="preserve"> W8/T8</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="33">
         <f t="shared" ref="AA8" si="66">X8/T8</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>200</v>
+        <v>51.5</v>
       </c>
       <c r="AC8" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>30</v>
       </c>
       <c r="AD8" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="AE8" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>180</v>
+        <v>51.5</v>
       </c>
       <c r="AF8" s="40">
         <f t="shared" ref="AF8" si="67">AB8-AG8</f>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AG8" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>150</v>
+        <v>15.5</v>
       </c>
       <c r="AH8" s="33">
         <f t="shared" ref="AH8" si="68" xml:space="preserve"> AE8/AB8</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="33">
         <f t="shared" ref="AI8" si="69">AF8/AB8</f>
-        <v>0.25</v>
+        <v>0.69902912621359226</v>
       </c>
       <c r="AL8" s="16" t="s">
         <v>251</v>
@@ -61439,50 +61520,134 @@
       <c r="C9" s="60">
         <v>43578</v>
       </c>
-      <c r="D9" s="57"/>
+      <c r="D9" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E9" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>300</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="59"/>
+      <c r="F9" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H9" s="40">
+        <f t="shared" ref="H9" si="70">D9-I9</f>
+        <v>1550.125</v>
+      </c>
+      <c r="I9" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J9" s="33">
+        <f t="shared" ref="J9" si="71" xml:space="preserve"> G9/D9</f>
+        <v>0.2699831260546216</v>
+      </c>
+      <c r="K9" s="33">
+        <f t="shared" ref="K9" si="72" xml:space="preserve"> H9/D9</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L9" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>200</v>
+      </c>
       <c r="M9" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>115</v>
       </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="57"/>
+      <c r="N9" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>180</v>
+      </c>
+      <c r="P9" s="40">
+        <f t="shared" ref="P9" si="73">L9-Q9</f>
+        <v>50</v>
+      </c>
+      <c r="Q9" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Reuse")</f>
+        <v>150</v>
+      </c>
+      <c r="R9" s="33">
+        <f t="shared" ref="R9" si="74" xml:space="preserve"> O9/L9</f>
+        <v>0.9</v>
+      </c>
+      <c r="S9" s="33">
+        <f t="shared" ref="S9" si="75" xml:space="preserve"> P9/L9</f>
+        <v>0.25</v>
+      </c>
+      <c r="T9" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>200</v>
+      </c>
       <c r="U9" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>60</v>
       </c>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="57"/>
+      <c r="V9" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>180</v>
+      </c>
+      <c r="X9" s="40">
+        <f t="shared" ref="X9" si="76">T9-Y9</f>
+        <v>50</v>
+      </c>
+      <c r="Y9" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Drag &amp; Drop")</f>
+        <v>150</v>
+      </c>
+      <c r="Z9" s="33">
+        <f t="shared" ref="Z9" si="77" xml:space="preserve"> W9/T9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA9" s="33">
+        <f t="shared" ref="AA9" si="78">X9/T9</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB9" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>200</v>
+      </c>
       <c r="AC9" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>30</v>
       </c>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="33"/>
+      <c r="AD9" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>180</v>
+      </c>
+      <c r="AF9" s="40">
+        <f t="shared" ref="AF9" si="79">AB9-AG9</f>
+        <v>50</v>
+      </c>
+      <c r="AG9" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>150</v>
+      </c>
+      <c r="AH9" s="33">
+        <f t="shared" ref="AH9" si="80" xml:space="preserve"> AE9/AB9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI9" s="33">
+        <f t="shared" ref="AI9" si="81">AF9/AB9</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="10" spans="1:42" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="60"/>
@@ -62039,17 +62204,23 @@
         <v>266</v>
       </c>
       <c r="C20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1460.125</v>
+        <v>60</v>
       </c>
       <c r="D20">
-        <f>GETPIVOTDATA("Story Points",$G$2)</f>
-        <v>35</v>
+        <v>223.5</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>267</v>
+      </c>
+      <c r="C21">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1460.125</v>
+      </c>
+      <c r="D21">
+        <f>GETPIVOTDATA("Story Points",$G$2)</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
